--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z236"/>
+  <dimension ref="A1:Z237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 20194-2024</t>
+          <t>A 39855-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45434</v>
+        <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -699,21 +699,110 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogsknipprot
+Fläcknycklar
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 20194-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Naverlönn
 Skogsalm
@@ -722,120 +811,31 @@
 Stor häxört</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 39855-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44819</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot
-Fläcknycklar
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 27738-2025</t>
+          <t>A 2823-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45815</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,17 +1034,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>21.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1067,393 +1067,393 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg
+Grönvit nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 27738-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Bokvårtlav
 Sydlig sotticka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 24801-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Småvänderot
+Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 56742-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45238</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Scharlakansskål
 Skogsödla</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 24801-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Småvänderot
-Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 2823-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45677</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg
-Grönvit nattviol
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 113-2023</t>
+          <t>A 25479-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44928</v>
+        <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,19 +1563,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,393 +1587,393 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Lundvårlök</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 40376-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 113-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44928</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 824-2026</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>46030.36170138889</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>3.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Hedblomster</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 40376-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45169</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 24158-2022</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24158-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44725</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 25479-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Lundvårlök</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3117,14 +3117,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 25850-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45762</v>
+        <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3174,14 +3174,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 25850-2022</t>
+          <t>A 19583-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44733.60949074074</v>
+        <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3231,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,8 +3307,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3345,14 +3350,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,8 +3369,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3402,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3432,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3459,14 +3469,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19583-2021</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44312</v>
+        <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3489,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3516,14 +3526,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45803</v>
+        <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3546,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3573,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3603,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3630,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45203</v>
+        <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3660,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3687,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3744,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3763,8 +3773,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3801,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45076</v>
+        <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3820,13 +3835,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3863,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45538</v>
+        <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3882,13 +3892,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3925,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3945,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3982,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4002,7 +4007,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4039,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44608</v>
+        <v>44872</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4058,8 +4063,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>14.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4096,14 +4106,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45762</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4126,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4153,14 +4163,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45176</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4183,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4210,14 +4220,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45363</v>
+        <v>45502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4240,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4267,14 +4277,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44964</v>
+        <v>45342</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4286,8 +4296,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4324,14 +4339,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45405</v>
+        <v>44858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4359,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4381,14 +4396,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45330</v>
+        <v>45128</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,13 +4415,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4443,14 +4453,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44872</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,13 +4472,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>14.3</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4505,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44860</v>
+        <v>45203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4525,7 +4530,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4562,14 +4567,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45569</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,13 +4586,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4624,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44810</v>
+        <v>45792</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>45317</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4738,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44894</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4795,14 +4795,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45128</v>
+        <v>45551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4814,8 +4814,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4852,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4877,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4909,14 +4914,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,13 +4933,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45728</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4990,13 +4990,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5033,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>45176</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5053,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5090,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45104</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,7 +5105,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5147,14 +5142,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45818</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5166,13 +5161,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5209,14 +5199,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45838</v>
+        <v>45187</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5229,7 +5219,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5266,14 +5256,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5286,7 +5276,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5323,14 +5313,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5343,7 +5333,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5380,14 +5370,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45989</v>
+        <v>44944</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,8 +5389,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5437,14 +5432,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,8 +5451,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5494,14 +5494,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5551,14 +5551,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45824</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5608,14 +5608,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45845</v>
+        <v>44608</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5665,14 +5665,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45978</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5722,14 +5722,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45537</v>
+        <v>45845</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,13 +5741,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5784,14 +5779,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5799,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5841,14 +5836,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5860,13 +5855,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5903,14 +5893,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45989</v>
+        <v>45386</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5913,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5960,14 +5950,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45478</v>
+        <v>45386</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5980,7 +5970,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6017,14 +6007,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6027,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6074,14 +6064,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45155</v>
+        <v>44944</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6093,8 +6083,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6131,14 +6126,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6151,7 +6146,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6183,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>45839</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6208,7 +6203,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6240,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44944</v>
+        <v>45226</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6264,13 +6259,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6307,14 +6297,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6327,7 +6317,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6364,14 +6354,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46042</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6384,7 +6374,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6421,14 +6411,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45104</v>
+        <v>45315</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6440,8 +6430,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6478,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46042</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6498,7 +6493,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6535,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6554,8 +6549,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6592,14 +6592,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46042</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6649,14 +6649,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45386</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6706,14 +6706,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45386</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6763,14 +6763,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46042</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6820,14 +6820,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46041</v>
+        <v>45845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>18.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6877,14 +6877,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44858</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6934,14 +6934,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45203</v>
+        <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6953,8 +6953,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6991,14 +6996,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45405</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7010,8 +7015,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7048,14 +7058,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45405</v>
+        <v>45203</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7068,7 +7078,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7105,14 +7115,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45391</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7125,7 +7135,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7162,14 +7172,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7181,13 +7191,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7224,14 +7229,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46048</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7281,14 +7286,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45463</v>
+        <v>45762</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7306,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7338,14 +7343,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7363,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7395,14 +7400,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7420,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7452,14 +7457,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7471,8 +7476,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7509,14 +7519,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7544,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7571,14 +7581,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,8 +7600,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7628,14 +7643,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45076</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7647,8 +7662,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7685,14 +7705,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>44523</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7725,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7742,14 +7762,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45845</v>
+        <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7782,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>18.7</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7799,14 +7819,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7839,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7856,14 +7876,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45572</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7896,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7913,14 +7933,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45958</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7932,13 +7952,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7975,14 +7990,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45763</v>
+        <v>44837</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7995,7 +8010,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8032,14 +8047,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45238</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8052,7 +8067,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8089,14 +8104,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45176</v>
+        <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8124,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8146,14 +8161,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45970</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8166,7 +8181,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8203,14 +8218,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45970</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8238,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8260,14 +8275,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46037</v>
+        <v>44964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8279,13 +8294,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8322,14 +8332,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8339,11 +8349,6 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -8384,14 +8389,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45898</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8403,13 +8408,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8446,14 +8446,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46051</v>
+        <v>45330</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8465,8 +8465,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8503,14 +8508,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8528,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8560,14 +8565,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45970</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8580,7 +8585,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8617,14 +8622,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8642,7 +8647,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8679,14 +8684,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46050</v>
+        <v>45203</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8699,7 +8704,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8736,14 +8741,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45680</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,11 +8762,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8798,14 +8803,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45958</v>
+        <v>45436</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,8 +8822,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8855,14 +8865,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>45187</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8875,7 +8885,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8912,14 +8922,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45938</v>
+        <v>45187</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8932,7 +8942,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8969,14 +8979,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45251</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8989,7 +8999,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9026,14 +9036,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>45103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9046,7 +9056,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9083,14 +9093,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45317</v>
+        <v>45103</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9103,7 +9113,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9140,14 +9150,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45342</v>
+        <v>45989</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,13 +9169,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9202,14 +9207,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9222,7 +9227,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9259,14 +9264,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9279,7 +9284,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9316,14 +9321,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44935</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9336,7 +9341,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9373,14 +9378,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45898</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9393,7 +9398,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9430,14 +9435,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45970</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9450,7 +9455,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9487,14 +9492,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45970</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,8 +9511,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9544,14 +9554,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9564,7 +9574,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9601,14 +9611,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45602</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9620,8 +9630,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9658,14 +9673,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45034</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9677,8 +9692,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9715,14 +9735,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45315</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9736,11 +9756,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9777,14 +9797,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45117</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9797,7 +9817,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9834,14 +9854,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45677</v>
+        <v>45989</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9854,7 +9874,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9891,14 +9911,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9911,7 +9931,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9948,14 +9968,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45525</v>
+        <v>45537</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9967,8 +9987,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10005,14 +10030,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45728</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10025,7 +10050,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10062,14 +10087,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45189</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10081,13 +10106,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10124,14 +10144,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45187</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10144,7 +10164,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10181,14 +10201,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45187</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10201,7 +10221,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10238,14 +10258,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>46042</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10258,7 +10278,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10295,14 +10315,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44523</v>
+        <v>46042</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10315,7 +10335,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10352,14 +10372,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45680</v>
+        <v>46042</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10371,13 +10391,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10414,14 +10429,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45187</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10434,7 +10449,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10471,14 +10486,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45187</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10491,7 +10506,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10528,14 +10543,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45502</v>
+        <v>46041</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10548,7 +10563,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10585,14 +10600,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45435</v>
+        <v>46042</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10642,14 +10657,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45706</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10662,7 +10677,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10699,14 +10714,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45316</v>
+        <v>45572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10719,7 +10734,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10756,14 +10771,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>45728</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10776,7 +10791,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10813,14 +10828,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10833,7 +10848,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10870,14 +10885,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45226</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,7 +10905,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10927,14 +10942,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45051</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10947,7 +10962,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10984,14 +10999,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45187</v>
+        <v>45435</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11003,13 +11018,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11046,14 +11056,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45680</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11066,7 +11076,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11103,14 +11113,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45208</v>
+        <v>46048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11123,7 +11133,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11160,14 +11170,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45103</v>
+        <v>44935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11180,7 +11190,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11217,14 +11227,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11237,7 +11247,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11274,14 +11284,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45250</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11294,7 +11304,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11331,14 +11341,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>46050</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11361,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11388,14 +11398,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45938</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11418,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11445,14 +11455,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45680</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11466,11 +11476,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11507,14 +11517,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45287</v>
+        <v>46051</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11527,7 +11537,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11564,14 +11574,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45203</v>
+        <v>45970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11584,7 +11594,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11621,14 +11631,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>46037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11640,8 +11650,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11678,14 +11693,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11703,7 +11718,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11740,14 +11755,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44959</v>
+        <v>45208</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11760,7 +11775,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11797,14 +11812,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45502</v>
+        <v>45538</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11816,8 +11831,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11854,14 +11874,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45728</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11894,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11911,14 +11931,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45748</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11931,7 +11951,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11968,14 +11988,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44814</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11988,7 +12008,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12025,14 +12045,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45541</v>
+        <v>45251</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12045,7 +12065,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12082,14 +12102,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45079</v>
+        <v>45316</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12102,7 +12122,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12139,14 +12159,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45572</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12159,7 +12179,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12196,14 +12216,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>46059.38959490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12216,7 +12236,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12253,14 +12273,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45436</v>
+        <v>45405</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12272,13 +12292,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12315,14 +12330,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44928</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12335,7 +12350,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12372,14 +12387,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44837</v>
+        <v>44959</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12392,7 +12407,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12429,14 +12444,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45463</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12449,7 +12464,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12486,14 +12501,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12506,7 +12521,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12543,14 +12558,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45699</v>
+        <v>44894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12562,13 +12577,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12605,14 +12615,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44944</v>
+        <v>45572</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12624,13 +12634,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12667,14 +12672,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45525</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12687,7 +12692,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12724,14 +12729,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45237</v>
+        <v>44860</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12744,7 +12749,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12781,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45104</v>
+        <v>45706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12801,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12838,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45238</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12858,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12895,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45386</v>
+        <v>45034</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12920,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12952,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44858</v>
+        <v>45762</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12971,13 +12976,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>44693</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45128</v>
+        <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45551</v>
+        <v>45602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13147,13 +13147,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13190,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44833</v>
+        <v>44810</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13210,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13247,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13266,13 +13261,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13309,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45103</v>
+        <v>45203</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13329,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13366,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13385,8 +13375,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13423,14 +13418,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44693</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13443,7 +13438,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13480,14 +13475,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45176</v>
+        <v>45680</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13499,8 +13494,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13537,14 +13537,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45203</v>
+        <v>45386</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13594,14 +13594,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45405</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13651,14 +13651,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13708,14 +13708,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44286</v>
+        <v>45502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13765,14 +13765,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45391</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13822,14 +13822,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45051</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13879,14 +13879,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45478</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13936,14 +13936,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45334</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13993,14 +13993,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14012,8 +14012,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14050,14 +14055,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45569</v>
+        <v>45079</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14070,7 +14075,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14107,14 +14112,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45792</v>
+        <v>44833</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14132,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14164,14 +14169,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45818</v>
+        <v>44814</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14184,7 +14189,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14221,14 +14226,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14241,7 +14246,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14278,14 +14283,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45287</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14298,7 +14303,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14335,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45824</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14392,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45315</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14411,13 +14416,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>44286</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45839</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14565,17 +14565,17 @@
       </c>
       <c r="R235" s="2" t="inlineStr"/>
     </row>
-    <row r="236">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14621,6 +14621,63 @@
         <v>0</v>
       </c>
       <c r="R236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>A 32546-2021</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>44374.9483912037</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45434</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45238</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45169</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44928</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44725</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45750.2624537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44872</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45688.4693287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45176</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45342</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45128</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45754.42253472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>45569</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>45792</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>45317</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>45166.55553240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>45551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45300.56560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45728</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>45176</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45104</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>45818</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45187</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45715.65923611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44944</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45824.36681712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45824</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44608</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>45572.2912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45845</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>45916.39457175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45386</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45386</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>45203.38798611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44944</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>45839</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45226</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45103.60590277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45838.41444444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45315</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45545.31652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45938.64427083333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45390.42027777778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>45190.51157407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45541.74803240741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45103.44575231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45943.65060185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45951.62902777778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>45203</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>45700.30478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>45868.50842592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>45868.5252662037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>45762</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45868.54038194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45956.48366898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45957.6219212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45957.62021990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45187.65003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>45076</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44523</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44946.89586805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45261.46871527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45958</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44837</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45966.60334490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45970</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45970</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45882.58765046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45898</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45330</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45973.45210648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45763.49189814815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45979.67579861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45203</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45680</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45436</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45187</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45187</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>46029.46380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45103</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45989</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45989.25456018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45236.63965277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45989.25054398148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45989.25509259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45988.72927083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>46030.35765046296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>46030.32238425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46030.36222222223</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>46030.36413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45300.32600694444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45540.40679398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45989</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45537</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>46041.46335648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>46041.44900462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>46038.66546296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45996.40064814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>46042</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>46042</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>46042</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44775.0827662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45616.64002314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>46041</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>46042</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45261.39200231482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45728</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44834.65802083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>46048.34892361111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>46048.34422453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>45435</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>46006.63184027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>46048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>46049.53917824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>46050.45886574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>46050</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45938</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>46048.56442129629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>46051</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>46037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>46037.65879629629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45208</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45538</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>46014.57976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>46014.59008101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45460.64310185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45251</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>45316</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>46035.66065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>46059.38959490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45405</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45043.68783564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44959</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>45463</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45105.58829861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45572</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45525</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44860</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>45238</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45034</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>45762</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44693</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44810</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44810.56689814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45203</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45687.43989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45521.66075231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45680</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45386</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45405</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45391</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45051</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45478</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45545.31864583334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45079</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44833</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44814</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45630.46747685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45287</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45783.53788194444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45224.62993055556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44286</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45673.31113425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44374.9483912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45434</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45238</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45169</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44928</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44725</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45750.2624537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>44872</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45688.4693287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45176</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45342</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45128</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45754.42253472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>45569</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>45792</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>45317</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>45166.55553240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>45551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45300.56560185185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45728</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>45176</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45104</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>45818</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45187</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45715.65923611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44944</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44858</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45824.36681712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45824</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>44608</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>45572.2912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45845</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>45916.39457175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45386</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45386</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>45203.38798611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>44944</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>45839</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45226</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>45103.60590277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>45838.41444444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>45315</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45545.31652777778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45938.64427083333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45390.42027777778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>45190.51157407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6713,7 +6713,7 @@
         <v>45541.74803240741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45103.44575231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45845</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45943.65060185185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45187</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>45951.62902777778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>45203</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>45700.30478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>45868.50842592592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>45868.5252662037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>45762</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45868.54038194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>45956.48366898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45957.6219212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45957.62021990741</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45187.65003472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>45076</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44523</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44946.89586805556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45261.46871527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45958</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44837</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45966.60334490741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45237</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45970</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45970</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44964</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45882.58765046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45898</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45330</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45973.45210648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45763.49189814815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45979.67579861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45203</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45680</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>45436</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45187</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45187</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>46029.46380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45103</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45989</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45989.25456018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>45236.63965277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>45989.25054398148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>45989.25509259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45988.72927083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>46030.35765046296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>46030.32238425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>46030.36222222223</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>46030.36413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45300.32600694444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45540.40679398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>45989</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45537</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>46041.46335648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>46041.44900462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>46038.66546296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45996.40064814815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>46042</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>46042</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>46042</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>44775.0827662037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45616.64002314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>46041</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>46042</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45261.39200231482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45728</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44834.65802083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>46048.34892361111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>46048.34422453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>45435</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>46006.63184027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>46048</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>44935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>46049.53917824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>46050.45886574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>46050</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45938</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>46048.56442129629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>46051</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>46037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>46037.65879629629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45208</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45538</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>46014.57976851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>46014.59008101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45460.64310185185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>45251</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>45316</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>46035.66065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>46059.38959490741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12280,7 @@
         <v>45405</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45043.68783564815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44959</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>45463</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45105.58829861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45572</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45525</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44860</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>45238</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45034</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>45762</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44693</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44928</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45602</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44810</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44810.56689814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45203</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45687.43989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45521.66075231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45680</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45386</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45405</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45502</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45391</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45051</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45478</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45545.31864583334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45699</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>45079</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44833</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44814</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45630.46747685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45287</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45783.53788194444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45224.62993055556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44286</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45673.31113425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44374.9483912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 39855-2022</t>
+          <t>A 20194-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44819</v>
+        <v>45434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -699,21 +699,110 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Naverlönn
+Skogsalm
+Ask
+Scharlakansskål
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 39855-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogsknipprot
@@ -722,120 +811,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 20194-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Naverlönn
-Skogsalm
-Ask
-Scharlakansskål
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2823-2025</t>
+          <t>A 56742-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45238</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1067,393 +1067,393 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett
+Scharlakansskål
+Skogsödla</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 2823-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Borsttåg
 Grönvit nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 27738-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45815</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Bokvårtlav
 Sydlig sotticka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 24801-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ask
 Småvänderot
 Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 56742-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45238</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Scharlakansskål
-Skogsödla</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25479-2025</t>
+          <t>A 113-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45802</v>
+        <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,20 +1563,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1587,41 +1587,41 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Lundvårlök</t>
+          <t>Slåttergubbe</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>45169</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,14 +1717,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 113-2023</t>
+          <t>A 24158-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44928</v>
+        <v>44725</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1775,27 +1775,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,14 +1892,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24158-2022</t>
+          <t>A 25479-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44725</v>
+        <v>45802</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,19 +1912,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1936,41 +1936,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Lundvårlök</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3231,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45315</v>
+        <v>45203</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,13 +3307,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3350,14 +3345,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>45363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,11 +3362,6 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3412,14 +3402,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45763</v>
+        <v>45405</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3422,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3469,14 +3459,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45680</v>
+        <v>44872</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3488,8 +3478,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>14.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3526,14 +3521,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45128</v>
+        <v>45330</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3545,8 +3540,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45748</v>
+        <v>44860</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3640,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45541</v>
+        <v>44810</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3697,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45117</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45189</v>
+        <v>44894</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3773,13 +3773,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3816,14 +3811,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45677</v>
+        <v>45128</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3836,7 +3831,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3873,14 +3868,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45104</v>
+        <v>45537</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3892,8 +3887,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3949,8 +3949,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3992,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45250</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4007,7 +4012,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4044,14 +4049,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44872</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4063,13 +4068,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>14.3</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>45478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45176</v>
+        <v>45155</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45502</v>
+        <v>44944</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4239,8 +4239,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4277,14 +4282,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45342</v>
+        <v>45386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4296,13 +4301,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4339,14 +4339,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44858</v>
+        <v>45386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4396,14 +4396,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45128</v>
+        <v>44858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4453,14 +4453,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45104</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4510,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>45203</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4567,14 +4567,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45569</v>
+        <v>45405</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4624,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45792</v>
+        <v>45405</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45317</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,8 +4700,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,7 +4763,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4795,14 +4800,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45551</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4814,13 +4819,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45824</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45363</v>
+        <v>45572</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,14 +4971,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45728</v>
+        <v>45763</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45176</v>
+        <v>45238</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45104</v>
+        <v>45176</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45818</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45187</v>
+        <v>45315</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,8 +5218,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5256,14 +5261,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45187</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5276,7 +5281,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5313,14 +5318,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45251</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,14 +5375,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44944</v>
+        <v>45839</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5389,13 +5394,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5432,14 +5432,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44858</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5449,11 +5449,6 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -5494,14 +5489,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45317</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5514,7 +5509,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5551,14 +5546,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45824</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5571,7 +5566,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5608,14 +5603,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44608</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5628,7 +5623,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5665,14 +5660,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5685,7 +5680,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5722,14 +5717,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45845</v>
+        <v>45762</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5742,7 +5737,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5779,14 +5774,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45838</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5799,7 +5794,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5836,14 +5831,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5851,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5893,14 +5888,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45386</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5913,7 +5908,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5950,14 +5945,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45386</v>
+        <v>45838</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5970,7 +5965,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6007,14 +6002,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6027,7 +6022,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6064,14 +6059,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44944</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,13 +6078,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6126,14 +6116,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45155</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6146,7 +6136,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6183,14 +6173,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45839</v>
+        <v>45845</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6240,14 +6230,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45226</v>
+        <v>45525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6260,7 +6250,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6297,14 +6287,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6307,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6354,14 +6344,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6411,14 +6401,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45315</v>
+        <v>45189</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6432,11 +6422,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6463,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45187</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6493,7 +6483,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6530,14 +6520,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45187</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6549,13 +6539,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6592,14 +6577,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6612,7 +6597,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6649,14 +6634,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>44523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6669,7 +6654,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6706,14 +6691,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45680</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6725,8 +6710,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6763,14 +6753,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6783,7 +6773,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6820,14 +6810,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45845</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6840,7 +6830,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>18.7</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6877,14 +6867,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6896,8 +6886,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6934,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45187</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6953,13 +6948,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6996,14 +6986,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7015,13 +7005,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7058,14 +7043,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45203</v>
+        <v>45076</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7077,8 +7062,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7115,14 +7105,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45538</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7134,8 +7124,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7172,14 +7167,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7192,7 +7187,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7229,14 +7224,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7244,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7286,14 +7281,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45762</v>
+        <v>45845</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7301,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>18.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7343,14 +7338,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>44608</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7358,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7400,14 +7395,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7415,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7457,14 +7452,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7482,7 +7477,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7519,14 +7514,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7538,13 +7533,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7581,14 +7571,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>44964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7600,13 +7590,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7643,14 +7628,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45076</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7668,7 +7653,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7705,14 +7690,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44523</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7710,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7762,14 +7747,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45803</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7781,8 +7766,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7819,14 +7809,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45958</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7829,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7876,14 +7866,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7886,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7933,14 +7923,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45958</v>
+        <v>45391</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7943,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7990,14 +7980,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44837</v>
+        <v>45463</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8010,7 +8000,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8047,14 +8037,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>45898</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8067,7 +8057,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8104,14 +8094,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45237</v>
+        <v>45970</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8114,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8161,14 +8151,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>45970</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,7 +8171,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8218,14 +8208,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45970</v>
+        <v>45342</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,8 +8227,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8275,14 +8270,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44964</v>
+        <v>44935</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8295,7 +8290,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8332,14 +8327,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8352,7 +8347,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8389,14 +8384,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45898</v>
+        <v>45034</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8409,7 +8404,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8446,14 +8441,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45330</v>
+        <v>45315</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8471,7 +8466,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8508,14 +8503,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>45117</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8528,7 +8523,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8565,14 +8560,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8584,8 +8579,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8622,14 +8622,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,13 +8641,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8684,14 +8679,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45203</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,8 +8698,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8741,14 +8741,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45680</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8762,11 +8762,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8803,14 +8803,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45436</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8822,13 +8822,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8865,14 +8860,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45187</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8885,7 +8880,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8922,14 +8917,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45187</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,8 +8936,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>46029.46380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,14 +9036,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45103</v>
+        <v>45989</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9093,14 +9093,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45103</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9150,14 +9150,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45989</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9207,14 +9207,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9264,14 +9264,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>45978</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9321,14 +9321,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45187</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9378,14 +9378,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45187</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9435,14 +9435,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45502</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9492,14 +9492,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45435</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9511,13 +9511,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9554,14 +9549,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45316</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9574,7 +9569,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9611,14 +9606,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9630,13 +9625,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9673,14 +9663,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45989</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9692,13 +9682,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9735,14 +9720,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9754,13 +9739,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9797,14 +9777,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45226</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9817,7 +9797,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9854,14 +9834,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45989</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9874,7 +9854,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9911,14 +9891,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45978</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9931,7 +9911,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9968,14 +9948,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45537</v>
+        <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9987,13 +9967,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10030,14 +10005,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45187</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10049,8 +10024,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10087,14 +10067,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10107,7 +10087,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10144,14 +10124,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>46042</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10164,7 +10144,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10201,14 +10181,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>45680</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10221,7 +10201,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10258,14 +10238,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46042</v>
+        <v>45208</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10278,7 +10258,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10315,14 +10295,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>46042</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10335,7 +10315,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10372,14 +10352,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46042</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10392,7 +10372,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10429,14 +10409,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10449,7 +10429,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10486,14 +10466,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10506,7 +10486,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10543,14 +10523,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10563,7 +10543,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10600,14 +10580,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>46042</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10620,7 +10600,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10657,14 +10637,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>46041</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10677,7 +10657,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10714,14 +10694,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45572</v>
+        <v>45250</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10734,7 +10714,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10771,14 +10751,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45728</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10791,7 +10771,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10828,14 +10808,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10848,7 +10828,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10885,14 +10865,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>46048</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10905,7 +10885,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10942,14 +10922,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45680</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10961,8 +10941,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10999,14 +10984,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45435</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11019,7 +11004,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11063,7 +11048,7 @@
         <v>46006.63184027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11113,14 +11098,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46048</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11133,7 +11118,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11170,14 +11155,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44935</v>
+        <v>45287</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11190,7 +11175,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11227,14 +11212,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11247,7 +11232,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11284,14 +11269,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45203</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11304,7 +11289,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11341,14 +11326,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46050</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11361,7 +11346,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11398,14 +11383,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45938</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11418,7 +11403,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11455,14 +11440,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>46051</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11474,13 +11459,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11517,14 +11497,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46051</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11537,7 +11517,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11581,7 +11561,7 @@
         <v>45970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11631,14 +11611,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46037</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11656,7 +11636,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11693,14 +11673,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>46050</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11712,13 +11692,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11755,14 +11730,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45208</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11775,7 +11750,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11812,14 +11787,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45538</v>
+        <v>45938</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11831,13 +11806,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11874,14 +11844,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>44959</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11864,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11931,14 +11901,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>45502</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11921,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11988,14 +11958,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +11978,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12045,14 +12015,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45251</v>
+        <v>45748</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12035,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12102,14 +12072,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45316</v>
+        <v>46037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12121,8 +12091,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12166,7 +12141,7 @@
         <v>46035.66065972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12216,14 +12191,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46059.38959490741</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12235,8 +12210,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12273,14 +12253,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45405</v>
+        <v>46059</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12273,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12330,14 +12310,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>44814</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12350,7 +12330,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12387,14 +12367,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44959</v>
+        <v>45541</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12387,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12444,14 +12424,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45463</v>
+        <v>45079</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12444,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12501,14 +12481,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12520,8 +12500,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12558,14 +12543,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44894</v>
+        <v>45572</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12563,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12615,14 +12600,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45572</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12620,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12672,14 +12657,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45525</v>
+        <v>45436</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12691,8 +12676,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12729,14 +12719,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44860</v>
+        <v>44928</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12739,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12786,14 +12776,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45706</v>
+        <v>44837</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12796,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12843,14 +12833,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45238</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12853,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12900,14 +12890,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45034</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12910,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12957,14 +12947,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45762</v>
+        <v>45699</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12976,8 +12966,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +13009,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44693</v>
+        <v>44944</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13033,8 +13028,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44928</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45602</v>
+        <v>45237</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13185,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44810</v>
+        <v>45104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45203</v>
+        <v>45386</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>44858</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13418,14 +13418,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13475,14 +13475,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45680</v>
+        <v>45128</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13494,13 +13494,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13537,14 +13532,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45386</v>
+        <v>45551</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13556,8 +13551,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13594,14 +13594,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45405</v>
+        <v>44833</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13651,14 +13651,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45405</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13670,8 +13670,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13708,14 +13713,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45502</v>
+        <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13733,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13765,14 +13770,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45391</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13790,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13822,14 +13827,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45051</v>
+        <v>44693</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13847,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13879,14 +13884,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45478</v>
+        <v>45176</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13904,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13936,14 +13941,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45203</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13961,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13993,14 +13998,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45699</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14012,13 +14017,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14055,14 +14055,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45079</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14112,14 +14112,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44833</v>
+        <v>44286</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14169,14 +14169,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44814</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14226,14 +14226,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14283,14 +14283,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45287</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14340,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44286</v>
+        <v>45569</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45792</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45334</v>
+        <v>45818</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56742-2023</t>
+          <t>A 2823-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45238</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8.699999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1067,393 +1067,393 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg
+Grönvit nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 27738-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Bokvårtlav
+Sydlig sotticka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 24801-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Småvänderot
+Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 56742-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Scharlakansskål
 Skogsödla</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 2823-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45677</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg
-Grönvit nattviol
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 27738-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45815</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Bokvårtlav
-Sydlig sotticka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 24801-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Småvänderot
-Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 113-2023</t>
+          <t>A 25479-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44928</v>
+        <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,19 +1563,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,41 +1587,41 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Lundvårlök</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>45169</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,14 +1717,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24158-2022</t>
+          <t>A 113-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44725</v>
+        <v>44928</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1775,27 +1775,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,14 +1892,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 25479-2025</t>
+          <t>A 24158-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45802</v>
+        <v>44725</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,20 +1912,20 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
@@ -1936,41 +1936,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Lundvårlök</t>
+          <t>Slåttergubbe</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3231,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45203</v>
+        <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,8 +3307,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3345,14 +3350,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45363</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3362,6 +3367,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3402,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45405</v>
+        <v>45699</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,8 +3431,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3459,14 +3474,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44872</v>
+        <v>45079</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,13 +3493,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>14.3</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3521,14 +3531,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45330</v>
+        <v>45763</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3540,13 +3550,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3588,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44860</v>
+        <v>44833</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3603,7 +3608,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3640,14 +3645,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44810</v>
+        <v>45680</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3660,7 +3665,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3697,14 +3702,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>45128</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3717,7 +3722,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3754,14 +3759,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44894</v>
+        <v>45748</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3774,7 +3779,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3811,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45128</v>
+        <v>45541</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3831,7 +3836,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3868,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45537</v>
+        <v>44814</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3887,13 +3892,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3949,13 +3949,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3992,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45189</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4011,8 +4006,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45478</v>
+        <v>45677</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45155</v>
+        <v>45287</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44944</v>
+        <v>45104</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4239,13 +4239,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4282,14 +4277,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45386</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4302,7 +4297,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4339,14 +4334,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45386</v>
+        <v>45250</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4359,7 +4354,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4396,14 +4391,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44858</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4416,7 +4411,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4453,14 +4448,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45104</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4473,7 +4468,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4510,14 +4505,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45203</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4530,7 +4525,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4567,14 +4562,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45405</v>
+        <v>45502</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4587,7 +4582,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4619,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45405</v>
+        <v>44286</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4644,7 +4639,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4676,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45176</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,13 +4695,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4743,14 +4733,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>44872</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,8 +4752,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>14.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4800,14 +4795,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>44858</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4820,7 +4815,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4857,14 +4852,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45824</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4877,7 +4872,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4914,14 +4909,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45572</v>
+        <v>45342</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4933,8 +4928,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4971,14 +4971,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45763</v>
+        <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45238</v>
+        <v>45334</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45176</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5142,14 +5142,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5199,14 +5199,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45315</v>
+        <v>45838</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,13 +5218,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5261,14 +5256,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45203</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5276,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5318,14 +5313,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45251</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5333,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5375,14 +5370,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45839</v>
+        <v>45317</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5395,7 +5390,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5432,14 +5427,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5452,7 +5447,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5489,14 +5484,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45317</v>
+        <v>45551</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5508,8 +5503,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5546,14 +5546,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5603,14 +5603,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45363</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5660,14 +5660,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45602</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5717,14 +5717,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45762</v>
+        <v>45728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5774,14 +5774,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45569</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5831,14 +5831,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45792</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5888,14 +5888,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45176</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5945,14 +5945,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45838</v>
+        <v>45104</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6002,14 +6002,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45677</v>
+        <v>45187</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6059,14 +6059,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45187</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6116,14 +6116,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6135,8 +6135,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6173,14 +6178,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45845</v>
+        <v>44858</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6192,8 +6197,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6230,14 +6240,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45525</v>
+        <v>45818</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6250,7 +6260,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6287,14 +6297,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45803</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6307,7 +6317,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6344,14 +6354,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45728</v>
+        <v>44608</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6364,7 +6374,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6401,14 +6411,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45189</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6420,13 +6430,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6463,14 +6468,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45187</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6483,7 +6488,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6520,14 +6525,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45187</v>
+        <v>45824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6540,7 +6545,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6577,14 +6582,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45386</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6597,7 +6602,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6634,14 +6639,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44523</v>
+        <v>45386</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6654,7 +6659,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6691,14 +6696,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45680</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,13 +6715,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6753,14 +6753,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45706</v>
+        <v>44944</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6770,6 +6770,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -6810,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45839</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6830,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6867,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6886,13 +6891,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45315</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,8 +6948,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6986,14 +6991,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45155</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,7 +7011,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7043,14 +7048,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45076</v>
+        <v>45226</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7062,13 +7067,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7105,14 +7105,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45538</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7124,13 +7124,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7167,14 +7162,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7187,7 +7182,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7224,14 +7219,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7243,8 +7238,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7281,14 +7281,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45845</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>18.7</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7338,14 +7338,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44608</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7395,14 +7395,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45762</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7452,14 +7452,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7471,13 +7471,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7514,14 +7509,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7529,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>18.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7571,14 +7566,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44964</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7586,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7628,14 +7623,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45187</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7653,7 +7648,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7690,14 +7685,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7710,7 +7705,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7747,14 +7742,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7766,13 +7761,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7809,14 +7799,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45958</v>
+        <v>45762</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,7 +7819,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7866,14 +7856,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7886,7 +7876,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7923,14 +7913,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45391</v>
+        <v>45203</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7943,7 +7933,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7980,14 +7970,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45463</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,7 +7990,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8037,14 +8027,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45898</v>
+        <v>45803</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8057,7 +8047,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8094,14 +8084,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45970</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8113,8 +8103,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8151,14 +8146,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45970</v>
+        <v>45076</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8170,8 +8165,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45342</v>
+        <v>44523</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8227,13 +8227,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44935</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8289,8 +8284,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8327,14 +8327,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8384,14 +8384,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45034</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8441,14 +8441,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45315</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8460,13 +8460,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8503,14 +8498,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45117</v>
+        <v>44837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8523,7 +8518,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8560,14 +8555,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8579,13 +8574,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8622,14 +8612,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,8 +8631,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8679,14 +8674,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8704,7 +8699,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8741,14 +8736,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45237</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,13 +8755,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8803,14 +8793,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>44964</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8813,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8860,14 +8850,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45330</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,8 +8869,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8917,14 +8912,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45958</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8936,13 +8931,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>6.9</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8979,14 +8969,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8999,7 +8989,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9036,14 +9026,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45989</v>
+        <v>45203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9056,7 +9046,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9093,14 +9083,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9113,7 +9103,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9150,14 +9140,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45970</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9170,7 +9160,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9207,14 +9197,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45970</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9227,7 +9217,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9264,14 +9254,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45978</v>
+        <v>45898</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9284,7 +9274,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9321,14 +9311,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45187</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9341,7 +9331,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9378,14 +9368,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45187</v>
+        <v>45680</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9397,8 +9387,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9435,14 +9430,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45502</v>
+        <v>45436</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9454,8 +9449,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9492,14 +9492,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45435</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9511,8 +9511,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9549,14 +9554,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45316</v>
+        <v>45187</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9569,7 +9574,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9606,14 +9611,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>45187</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9626,7 +9631,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9663,14 +9668,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45989</v>
+        <v>45103</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9683,7 +9688,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9720,14 +9725,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45103</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9740,7 +9745,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9777,14 +9782,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45226</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9797,7 +9802,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9834,14 +9839,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9853,8 +9858,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9891,14 +9901,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9911,7 +9921,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9948,14 +9958,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45051</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9968,7 +9978,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10005,14 +10015,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45187</v>
+        <v>45989</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10024,13 +10034,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10067,14 +10072,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10087,7 +10092,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10124,14 +10129,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46042</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10144,7 +10149,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10181,14 +10186,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45680</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10201,7 +10206,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10238,14 +10243,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45208</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10258,7 +10263,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10295,14 +10300,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46042</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10314,8 +10319,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10352,14 +10362,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10409,14 +10419,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45103</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10428,8 +10438,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10466,14 +10481,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10485,8 +10500,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10523,14 +10543,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46042</v>
+        <v>45989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10543,7 +10563,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10580,14 +10600,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46042</v>
+        <v>45978</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10600,7 +10620,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10637,14 +10657,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46041</v>
+        <v>45537</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10656,8 +10676,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10694,14 +10719,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45250</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10714,7 +10739,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10751,14 +10776,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10771,7 +10796,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10808,14 +10833,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,14 +10890,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46048</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10910,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10922,14 +10947,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45680</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10941,13 +10966,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10984,14 +11004,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,7 +11024,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11041,14 +11061,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>46042</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11061,7 +11081,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11098,14 +11118,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>46042</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11118,7 +11138,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11155,14 +11175,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45287</v>
+        <v>46042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11175,7 +11195,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11212,14 +11232,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11232,7 +11252,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11269,14 +11289,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45203</v>
+        <v>45572</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11289,7 +11309,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11326,14 +11346,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>46041</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11346,7 +11366,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11383,14 +11403,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>46042</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11423,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11440,14 +11460,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46051</v>
+        <v>45728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11480,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11497,14 +11517,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11537,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11554,14 +11574,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45970</v>
+        <v>45435</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11594,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11611,14 +11631,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>44935</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11630,13 +11650,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11673,14 +11688,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46050</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11708,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11730,14 +11745,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11750,7 +11765,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11787,14 +11802,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45938</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,7 +11822,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11844,14 +11859,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44959</v>
+        <v>46048</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11864,7 +11879,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11901,14 +11916,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45502</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11921,7 +11936,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11958,14 +11973,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45728</v>
+        <v>45208</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11978,7 +11993,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12015,14 +12030,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45748</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12035,7 +12050,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12072,14 +12087,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46037</v>
+        <v>45538</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12097,7 +12112,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12134,14 +12149,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12154,7 +12169,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12191,14 +12206,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>45251</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12210,13 +12225,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12253,14 +12263,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46059</v>
+        <v>46050</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12273,7 +12283,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12310,14 +12320,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44814</v>
+        <v>45938</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12330,7 +12340,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12367,14 +12377,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45541</v>
+        <v>46051</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12387,7 +12397,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12424,14 +12434,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45079</v>
+        <v>45316</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12444,7 +12454,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12481,14 +12491,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45970</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12500,13 +12510,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12543,14 +12548,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45572</v>
+        <v>45405</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12563,7 +12568,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12600,14 +12605,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12620,7 +12625,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12657,14 +12662,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45436</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12676,13 +12681,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12719,14 +12719,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44928</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12776,14 +12776,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44837</v>
+        <v>44959</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12833,14 +12833,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12890,14 +12890,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12947,14 +12947,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45699</v>
+        <v>44894</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12966,13 +12966,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13009,14 +13004,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44944</v>
+        <v>45572</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13028,13 +13023,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13061,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13090,8 +13080,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13123,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45237</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13143,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13185,14 +13180,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45104</v>
+        <v>45525</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13200,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13237,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>46059</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13257,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13294,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45386</v>
+        <v>46037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13318,8 +13313,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44858</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13418,14 +13418,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>44860</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13475,14 +13475,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45128</v>
+        <v>45706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13532,14 +13532,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45551</v>
+        <v>45238</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13551,13 +13551,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13594,14 +13589,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44833</v>
+        <v>45034</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13609,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13651,14 +13646,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>45762</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13670,13 +13665,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13713,14 +13703,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45103</v>
+        <v>44693</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13770,14 +13760,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>44928</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13790,7 +13780,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13827,14 +13817,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44693</v>
+        <v>45602</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13847,7 +13837,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13884,14 +13874,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45176</v>
+        <v>44810</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13904,7 +13894,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13941,14 +13931,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45203</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13951,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13998,14 +13988,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45203</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14008,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14055,14 +14045,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14074,8 +14064,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14112,14 +14107,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44286</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14127,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14169,14 +14164,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45680</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14188,8 +14183,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14226,14 +14226,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45386</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14283,14 +14283,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45405</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14340,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45334</v>
+        <v>45405</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.6</v>
+        <v>0.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45502</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45569</v>
+        <v>45391</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45792</v>
+        <v>45051</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45818</v>
+        <v>45478</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z237"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2823-2025</t>
+          <t>A 56742-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45238</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1067,393 +1067,393 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett
+Scharlakansskål
+Skogsödla</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 2823-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Borsttåg
 Grönvit nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 27738-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45815</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Bokvårtlav
 Sydlig sotticka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 24801-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ask
 Småvänderot
 Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 56742-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45238</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Scharlakansskål
-Skogsödla</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25479-2025</t>
+          <t>A 113-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45802</v>
+        <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,20 +1563,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1587,229 +1587,229 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 25479-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Lundvårlök</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 40376-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45169</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>2.7</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 113-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44928</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 824-2026</t>
+          <t>A 24158-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46030.36170138889</v>
+        <v>44725</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1819,18 +1819,13 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1861,119 +1856,124 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 824-2026</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>46030.36170138889</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Hedblomster</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 24158-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44725</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2718,14 +2718,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31285-2022</t>
+          <t>A 33571-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44771.70138888889</v>
+        <v>44789</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2775,14 +2775,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32543-2021</t>
+          <t>A 31285-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44374.93796296296</v>
+        <v>44771.70138888889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2832,14 +2832,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34120-2021</t>
+          <t>A 32543-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44379</v>
+        <v>44374.93796296296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2889,14 +2889,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12174-2021</t>
+          <t>A 52832-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44266</v>
+        <v>44466</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2946,14 +2946,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52832-2021</t>
+          <t>A 19581-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44466</v>
+        <v>44312.55366898148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3003,14 +3003,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33571-2022</t>
+          <t>A 34120-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44789</v>
+        <v>44379</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3060,14 +3060,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19581-2021</t>
+          <t>A 25850-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44312.55366898148</v>
+        <v>44733.60949074074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3117,14 +3117,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25850-2022</t>
+          <t>A 19583-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44733.60949074074</v>
+        <v>44312</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3174,14 +3174,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19583-2021</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44312</v>
+        <v>45537</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,8 +3193,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3231,14 +3236,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3256,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3293,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45315</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3309,11 +3314,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3350,14 +3355,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>44608</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3369,13 +3374,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3412,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45699</v>
+        <v>45478</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3431,13 +3431,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3474,14 +3469,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45079</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3494,7 +3489,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3531,14 +3526,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45763</v>
+        <v>45203</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3546,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3588,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44833</v>
+        <v>45155</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3603,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3645,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45680</v>
+        <v>45762</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3660,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3702,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45128</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3722,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3759,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45748</v>
+        <v>44944</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3778,8 +3773,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45541</v>
+        <v>44964</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44814</v>
+        <v>45363</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45117</v>
+        <v>45405</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 12174-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45189</v>
+        <v>44266</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4006,13 +4006,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4049,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>45330</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4068,8 +4063,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45677</v>
+        <v>45104</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45287</v>
+        <v>44872</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4182,8 +4182,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>14.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4220,14 +4225,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45104</v>
+        <v>45386</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4240,7 +4245,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4277,14 +4282,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45386</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4297,7 +4302,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4334,14 +4339,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45250</v>
+        <v>44858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4354,7 +4359,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4391,14 +4396,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45203</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4411,7 +4416,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4448,14 +4453,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>44860</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4468,7 +4473,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4505,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>44810</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4525,7 +4530,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4562,14 +4567,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45502</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4582,7 +4587,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4619,14 +4624,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44286</v>
+        <v>45405</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4639,7 +4644,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4676,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45176</v>
+        <v>45405</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4696,7 +4701,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4733,14 +4738,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44872</v>
+        <v>45391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,13 +4757,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>14.3</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4795,14 +4795,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44858</v>
+        <v>45463</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4852,14 +4852,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>44894</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4909,14 +4909,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45342</v>
+        <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,13 +4928,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4971,14 +4966,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45128</v>
+        <v>45342</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4990,8 +4985,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45334</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,8 +5047,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5085,14 +5090,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5105,7 +5110,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5142,14 +5147,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45845</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5162,7 +5167,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5199,14 +5204,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45838</v>
+        <v>44935</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,14 +5261,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45203</v>
+        <v>45792</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5276,7 +5281,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5313,14 +5318,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>44928</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,14 +5375,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45317</v>
+        <v>45034</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5390,7 +5395,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5427,14 +5432,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45572</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5447,7 +5452,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5484,14 +5489,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45551</v>
+        <v>45315</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5505,11 +5510,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5546,14 +5551,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45763</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5603,14 +5608,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45363</v>
+        <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5623,7 +5628,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5660,14 +5665,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45238</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5680,7 +5685,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5717,14 +5722,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45728</v>
+        <v>45176</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,7 +5742,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5774,14 +5779,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45569</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5799,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5831,14 +5836,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45792</v>
+        <v>45818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5851,7 +5856,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5888,14 +5893,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45176</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5908,7 +5913,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5945,14 +5950,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45104</v>
+        <v>45251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5965,7 +5970,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6002,14 +6007,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45187</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6022,7 +6027,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6059,14 +6064,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45187</v>
+        <v>45824</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6079,7 +6084,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6116,14 +6121,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44944</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6135,13 +6140,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6178,14 +6178,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44858</v>
+        <v>45317</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6195,11 +6195,6 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6240,14 +6235,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45818</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6260,7 +6255,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6297,14 +6292,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6312,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6354,14 +6349,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44608</v>
+        <v>44837</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6374,7 +6369,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6411,14 +6406,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45187</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6431,7 +6426,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6468,14 +6463,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45187</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6488,7 +6483,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6525,14 +6520,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45824</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6545,7 +6540,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6582,14 +6577,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45386</v>
+        <v>45502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6602,7 +6597,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6639,14 +6634,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45386</v>
+        <v>45435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6659,7 +6654,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6696,14 +6691,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45316</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6716,7 +6711,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6753,14 +6748,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44944</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6772,13 +6767,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6815,14 +6805,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45839</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6835,7 +6825,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6862,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45315</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6891,8 +6881,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6929,14 +6924,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45315</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,13 +6943,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6991,14 +6981,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45155</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7011,7 +7001,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7048,14 +7038,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45226</v>
+        <v>45699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7067,8 +7057,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7105,14 +7100,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45602</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7125,7 +7120,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7162,14 +7157,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45226</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7219,14 +7214,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45839</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,13 +7233,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7281,14 +7271,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45051</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7301,7 +7291,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7338,14 +7328,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45187</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7355,6 +7345,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -7395,14 +7390,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>44944</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7414,8 +7409,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7452,14 +7452,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7509,14 +7509,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45845</v>
+        <v>45680</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>18.7</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7566,14 +7566,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45208</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7623,14 +7623,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45187</v>
+        <v>45237</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7642,13 +7642,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7685,14 +7680,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7705,7 +7700,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7742,14 +7737,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7762,7 +7757,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7799,14 +7794,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45762</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7819,7 +7814,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7856,14 +7851,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45103</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7876,7 +7871,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7913,14 +7908,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45203</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7933,7 +7928,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7970,14 +7965,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45386</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,7 +7985,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8027,14 +8022,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45803</v>
+        <v>44858</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8046,8 +8041,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8084,14 +8084,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>45677</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,13 +8103,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8146,14 +8141,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45076</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,13 +8160,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8208,14 +8198,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44523</v>
+        <v>45525</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8228,7 +8218,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8265,14 +8255,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45250</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8284,13 +8274,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8327,14 +8312,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,7 +8332,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8384,14 +8369,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,7 +8389,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8441,14 +8426,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8460,8 +8445,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8498,14 +8488,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44837</v>
+        <v>45728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8518,7 +8508,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8555,14 +8545,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45189</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8574,8 +8564,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8612,14 +8607,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8631,13 +8626,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8674,14 +8664,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45762</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8693,13 +8683,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>8.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8736,14 +8721,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45237</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8756,7 +8741,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8793,14 +8778,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44964</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8813,7 +8798,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8850,14 +8835,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45330</v>
+        <v>45187</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8869,13 +8854,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8912,14 +8892,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45958</v>
+        <v>45187</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8932,7 +8912,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8969,14 +8949,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8989,7 +8969,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9026,14 +9006,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45203</v>
+        <v>44523</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9046,7 +9026,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9083,14 +9063,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>45203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9103,7 +9083,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9140,14 +9120,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45970</v>
+        <v>45680</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,8 +9139,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9197,14 +9182,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45970</v>
+        <v>45803</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9217,7 +9202,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9254,14 +9239,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45898</v>
+        <v>45706</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9274,7 +9259,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9311,14 +9296,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9331,7 +9316,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9368,14 +9353,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45680</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9387,13 +9372,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9430,14 +9410,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45436</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,13 +9429,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9492,14 +9467,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9511,13 +9486,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>5.5</v>
+        <v>0.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9554,14 +9524,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45187</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9573,8 +9543,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9611,14 +9586,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45187</v>
+        <v>44959</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9631,7 +9606,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9668,14 +9643,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45103</v>
+        <v>45502</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9688,7 +9663,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9725,14 +9700,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45103</v>
+        <v>45128</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9745,7 +9720,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9782,14 +9757,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>45728</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9839,14 +9814,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45748</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,13 +9833,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9901,14 +9871,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9921,7 +9891,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9958,14 +9928,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9978,7 +9948,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10015,14 +9985,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45989</v>
+        <v>45076</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,8 +10004,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10072,14 +10047,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45538</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10091,8 +10066,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10129,14 +10109,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10186,14 +10166,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>44814</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10206,7 +10186,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10243,14 +10223,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45541</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10263,7 +10243,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10300,14 +10280,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45551</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10325,7 +10305,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10362,14 +10342,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45079</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10382,7 +10362,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10419,14 +10399,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>44833</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10438,13 +10418,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10481,14 +10456,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10506,7 +10481,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10543,14 +10518,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45989</v>
+        <v>45572</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10563,7 +10538,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10600,14 +10575,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45978</v>
+        <v>45103</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10620,7 +10595,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10657,14 +10632,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45537</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10676,13 +10651,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10719,14 +10689,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10739,7 +10709,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10776,14 +10746,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>44693</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10796,7 +10766,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10833,14 +10803,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>45436</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10852,8 +10822,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10890,14 +10865,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>45176</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10910,7 +10885,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10947,14 +10922,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45203</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10967,7 +10942,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11004,14 +10979,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11024,7 +10999,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11061,14 +11036,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46042</v>
+        <v>45838</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11081,7 +11056,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11118,14 +11093,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46042</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11175,14 +11150,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46042</v>
+        <v>45845</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11195,7 +11170,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11232,14 +11207,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11252,7 +11227,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11289,14 +11264,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45572</v>
+        <v>44286</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11346,14 +11321,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46041</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11366,7 +11341,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11403,14 +11378,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46042</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11423,7 +11398,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11460,14 +11435,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45728</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11479,8 +11454,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11517,14 +11497,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11537,7 +11517,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11574,14 +11554,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45435</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11594,7 +11574,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11631,14 +11611,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44935</v>
+        <v>45845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11651,7 +11631,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>18.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11688,14 +11668,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>45334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11708,7 +11688,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11745,14 +11725,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11764,8 +11744,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11802,14 +11787,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11821,8 +11806,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11859,14 +11849,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46048</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11879,7 +11869,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11916,14 +11906,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11935,8 +11925,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11973,14 +11968,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45208</v>
+        <v>45958</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11988,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12030,14 +12025,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12045,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12087,14 +12082,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45538</v>
+        <v>45569</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12106,13 +12101,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12149,14 +12139,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12159,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12206,14 +12196,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45251</v>
+        <v>45898</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12216,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12263,14 +12253,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46050</v>
+        <v>45970</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12273,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12320,14 +12310,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45938</v>
+        <v>45970</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12330,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12377,14 +12367,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46051</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12387,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12434,14 +12424,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45316</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12453,8 +12443,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12491,14 +12486,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45970</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12506,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12548,14 +12543,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45405</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12567,8 +12562,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12605,14 +12605,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12624,8 +12624,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12662,14 +12667,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12687,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12719,14 +12724,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12738,8 +12743,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12776,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44959</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12833,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45463</v>
+        <v>45989</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12890,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12910,7 +12920,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12947,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44894</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12967,7 +12977,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13004,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45572</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13024,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13061,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45978</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13080,13 +13090,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13123,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45989</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13148,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13180,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45525</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13237,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46059</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13294,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46037</v>
+        <v>46042</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13313,13 +13318,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>46042</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13375,13 +13375,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13418,14 +13413,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44860</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13438,7 +13433,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13475,14 +13470,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45706</v>
+        <v>46042</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13495,7 +13490,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13532,14 +13527,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45238</v>
+        <v>46042</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13552,7 +13547,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13589,14 +13584,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45034</v>
+        <v>46041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13609,7 +13604,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13646,14 +13641,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45762</v>
+        <v>46048</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13661,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13703,14 +13698,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44693</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13723,7 +13718,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13760,14 +13755,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44928</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13780,7 +13775,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13817,14 +13812,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45602</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13837,7 +13832,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13874,14 +13869,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44810</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13894,7 +13889,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13931,14 +13926,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13951,7 +13946,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13988,14 +13983,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45203</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14008,7 +14003,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14045,14 +14040,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>46051</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14064,13 +14059,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14107,14 +14097,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45970</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14117,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14164,14 +14154,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45680</v>
+        <v>46050</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14183,13 +14173,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14226,14 +14211,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45386</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14246,7 +14231,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14283,14 +14268,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45405</v>
+        <v>45938</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14303,7 +14288,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14340,14 +14325,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45405</v>
+        <v>46037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14359,8 +14344,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14387,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45502</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14407,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14444,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45391</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14473,8 +14463,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14506,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45051</v>
+        <v>46059</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14526,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,116 +14563,292 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45478</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C236" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237" ht="15" customHeight="1">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>A 8310-2026</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>46064.59166666667</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238" ht="15" customHeight="1">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>A 3013-2026</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>46038.66546296296</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239" ht="15" customHeight="1">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>A 8259-2026</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="n">
         <v>46064</v>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>0</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0</v>
-      </c>
-      <c r="P236" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>0</v>
-      </c>
-      <c r="R236" s="2" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>A 38084-2024</t>
-        </is>
-      </c>
-      <c r="B237" s="1" t="n">
-        <v>45545.31864583334</v>
-      </c>
-      <c r="C237" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>0</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0</v>
-      </c>
-      <c r="P237" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>0</v>
-      </c>
-      <c r="R237" s="2" t="inlineStr"/>
+      <c r="C239" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>A 8260-2026</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>46064.52855324074</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 20194-2024</t>
+          <t>A 39855-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45434</v>
+        <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -699,21 +699,110 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogsknipprot
+Fläcknycklar
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 20194-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Naverlönn
 Skogsalm
@@ -722,120 +811,31 @@
 Stor häxört</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 39855-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44819</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot
-Fläcknycklar
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56742-2023</t>
+          <t>A 2823-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45238</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8.699999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1067,393 +1067,393 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg
+Grönvit nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 27738-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Bokvårtlav
+Sydlig sotticka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 24801-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Småvänderot
+Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 56742-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Scharlakansskål
 Skogsödla</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2823-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45677</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg
-Grönvit nattviol
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 27738-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45815</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Bokvårtlav
-Sydlig sotticka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 24801-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Småvänderot
-Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 113-2023</t>
+          <t>A 25479-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44928</v>
+        <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,19 +1563,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,218 +1587,218 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Lundvårlök</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 40376-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 113-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44928</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 25479-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Lundvårlök</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 40376-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45169</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>44725</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2718,14 +2718,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33571-2022</t>
+          <t>A 31285-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44789</v>
+        <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2775,14 +2775,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31285-2022</t>
+          <t>A 32543-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44771.70138888889</v>
+        <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2832,14 +2832,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32543-2021</t>
+          <t>A 34120-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44374.93796296296</v>
+        <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2889,14 +2889,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52832-2021</t>
+          <t>A 12174-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44466</v>
+        <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2946,14 +2946,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19581-2021</t>
+          <t>A 52832-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44312.55366898148</v>
+        <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3003,14 +3003,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34120-2021</t>
+          <t>A 33571-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44379</v>
+        <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3060,14 +3060,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25850-2022</t>
+          <t>A 19581-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44733.60949074074</v>
+        <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3117,14 +3117,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19583-2021</t>
+          <t>A 25850-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44312</v>
+        <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3174,14 +3174,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 19583-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45537</v>
+        <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,13 +3193,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3236,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3256,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3293,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3314,11 +3309,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3355,14 +3350,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44608</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3374,8 +3369,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3412,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45478</v>
+        <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3469,14 +3469,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3526,14 +3526,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45203</v>
+        <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45155</v>
+        <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3640,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45762</v>
+        <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3697,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44944</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44964</v>
+        <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45363</v>
+        <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45405</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12174-2021</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44266</v>
+        <v>45250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45330</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4063,13 +4063,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4106,14 +4101,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45104</v>
+        <v>45176</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4126,7 +4121,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4163,14 +4158,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44872</v>
+        <v>45502</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4182,13 +4177,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4225,14 +4215,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45386</v>
+        <v>44872</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4244,8 +4234,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>14.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4282,14 +4277,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45386</v>
+        <v>44858</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4302,7 +4297,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4339,14 +4334,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44858</v>
+        <v>45342</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4358,8 +4353,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4396,14 +4396,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45203</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4453,14 +4453,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44860</v>
+        <v>45128</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4510,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44810</v>
+        <v>45569</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4567,14 +4567,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4586,8 +4586,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4629,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45405</v>
+        <v>45792</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4644,7 +4649,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4686,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45405</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4706,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45391</v>
+        <v>45203</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4758,7 +4763,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4795,14 +4800,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45463</v>
+        <v>46059</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4820,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4852,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44894</v>
+        <v>46037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4871,8 +4876,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4909,14 +4919,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45128</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,8 +4938,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4966,14 +4981,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45342</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,13 +5000,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5038,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45317</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,13 +5057,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5090,14 +5095,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,7 +5115,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5147,14 +5152,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5167,7 +5172,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5204,14 +5209,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 8259-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44935</v>
+        <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,7 +5229,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5261,14 +5266,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45792</v>
+        <v>45551</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5280,8 +5285,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5318,14 +5328,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44928</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5348,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5375,14 +5385,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45034</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5395,7 +5405,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5432,14 +5442,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 8260-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45572</v>
+        <v>46064.52855324074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5452,7 +5462,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5489,14 +5499,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 8310-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45315</v>
+        <v>46064.59166666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5508,13 +5518,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5551,14 +5556,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45763</v>
+        <v>45363</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5608,14 +5613,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45117</v>
+        <v>45728</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5628,7 +5633,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5665,14 +5670,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45238</v>
+        <v>45818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5685,7 +5690,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5722,14 +5727,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45176</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5742,7 +5747,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5779,14 +5784,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45176</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5799,7 +5804,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5836,14 +5841,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45818</v>
+        <v>45104</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5861,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5893,14 +5898,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5913,7 +5918,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5950,14 +5955,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45251</v>
+        <v>45824</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5970,7 +5975,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6007,14 +6012,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45187</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6027,7 +6032,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6064,14 +6069,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45824</v>
+        <v>45187</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6084,7 +6089,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6121,14 +6126,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>44944</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,8 +6145,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6178,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45317</v>
+        <v>44858</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6195,6 +6205,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6235,14 +6250,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45839</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6255,7 +6270,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6292,14 +6307,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6312,7 +6327,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6349,14 +6364,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44837</v>
+        <v>45315</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,8 +6383,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6406,14 +6426,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45187</v>
+        <v>44608</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6426,7 +6446,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6463,14 +6483,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45187</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6483,7 +6503,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6520,14 +6540,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45386</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6540,7 +6560,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6577,14 +6597,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45502</v>
+        <v>45386</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6597,7 +6617,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6634,14 +6654,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45435</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6654,7 +6674,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6691,14 +6711,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45316</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6711,7 +6731,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6748,14 +6768,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>44944</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,8 +6787,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6805,14 +6830,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45155</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6825,7 +6850,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6862,14 +6887,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45315</v>
+        <v>45226</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,13 +6906,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6924,14 +6944,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6944,7 +6964,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6981,14 +7001,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7001,7 +7021,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7038,14 +7058,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45699</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7057,13 +7077,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7100,14 +7115,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45602</v>
+        <v>45762</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7120,7 +7135,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7157,14 +7172,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45226</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7177,7 +7192,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7214,14 +7229,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45839</v>
+        <v>45803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7234,7 +7249,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7271,14 +7286,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45051</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7291,7 +7306,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7328,14 +7343,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45187</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7345,11 +7360,6 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -7390,14 +7400,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44944</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7409,13 +7419,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7452,14 +7457,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7477,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7509,14 +7514,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45680</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7534,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7566,14 +7571,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45208</v>
+        <v>45845</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7586,7 +7591,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7623,14 +7628,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45237</v>
+        <v>45838</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7680,14 +7685,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45104</v>
+        <v>45187</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7699,8 +7704,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7737,14 +7747,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7767,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7794,14 +7804,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45203</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7824,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7851,14 +7861,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45103</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7871,7 +7881,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7908,14 +7918,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7927,8 +7937,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7965,14 +7980,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45386</v>
+        <v>45076</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7984,8 +7999,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8022,14 +8042,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44858</v>
+        <v>44523</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,13 +8061,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8084,14 +8099,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45677</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8104,7 +8119,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8141,14 +8156,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8161,7 +8176,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8198,14 +8213,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45525</v>
+        <v>44837</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8218,7 +8233,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8255,14 +8270,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45250</v>
+        <v>45237</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8275,7 +8290,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8312,14 +8327,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>44964</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8332,7 +8347,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.6</v>
+        <v>0.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8369,14 +8384,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45330</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8388,8 +8403,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8426,14 +8446,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45680</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8447,11 +8467,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8488,14 +8508,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45728</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8508,7 +8528,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8545,14 +8565,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45189</v>
+        <v>45845</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8564,13 +8584,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.8</v>
+        <v>18.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8607,14 +8622,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45287</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8627,7 +8642,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8664,14 +8679,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45762</v>
+        <v>45203</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8684,7 +8699,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8721,14 +8736,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45680</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8740,8 +8755,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8778,14 +8798,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8797,8 +8817,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8835,14 +8860,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45187</v>
+        <v>45436</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8854,8 +8879,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8892,14 +8922,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8912,7 +8942,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8949,14 +8979,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45187</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8969,7 +8999,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9006,14 +9036,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44523</v>
+        <v>45103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9026,7 +9056,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9063,14 +9093,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45203</v>
+        <v>45103</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9083,7 +9113,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9120,14 +9150,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45680</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9139,13 +9169,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9182,14 +9207,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45803</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9202,7 +9227,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9239,14 +9264,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45706</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9258,8 +9283,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9296,14 +9326,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9315,8 +9345,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9353,14 +9388,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9372,8 +9407,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9410,14 +9450,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9467,14 +9507,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>45958</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9527,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9524,14 +9564,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9543,13 +9583,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9586,14 +9621,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44959</v>
+        <v>45537</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9605,8 +9640,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>9.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9643,14 +9683,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45502</v>
+        <v>45970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9663,7 +9703,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9700,14 +9740,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45128</v>
+        <v>45970</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9720,7 +9760,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9757,14 +9797,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45728</v>
+        <v>45898</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9777,7 +9817,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9814,14 +9854,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45748</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9834,7 +9874,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9871,14 +9911,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9891,7 +9931,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9928,14 +9968,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9988,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9985,14 +10025,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45076</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10004,13 +10044,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10047,14 +10082,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45538</v>
+        <v>45572</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10066,13 +10101,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10109,14 +10139,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45728</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10129,7 +10159,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10166,14 +10196,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44814</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10185,8 +10215,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10223,14 +10258,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45541</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10278,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10280,14 +10315,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45551</v>
+        <v>45435</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10299,13 +10334,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10342,14 +10372,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45079</v>
+        <v>44935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10362,7 +10392,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10399,14 +10429,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44833</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,7 +10449,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10456,14 +10486,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>45989</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10473,11 +10503,6 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -10518,14 +10543,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45572</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10538,7 +10563,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10575,14 +10600,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45103</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,14 +10657,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10652,7 +10677,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10689,14 +10714,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10709,7 +10734,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10746,14 +10771,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44693</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10765,8 +10790,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10803,14 +10833,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45436</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10822,13 +10852,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10865,14 +10890,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45176</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10884,8 +10909,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10922,14 +10952,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45203</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10941,8 +10971,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>6.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10979,14 +11014,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45989</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +11034,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11036,14 +11071,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45838</v>
+        <v>45208</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11091,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11093,14 +11128,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45538</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11112,8 +11147,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11150,14 +11190,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45845</v>
+        <v>45978</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11210,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11207,14 +11247,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11267,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11264,14 +11304,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44286</v>
+        <v>45251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11324,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11321,14 +11361,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45316</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11381,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11378,14 +11418,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45405</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11398,7 +11438,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11435,14 +11475,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11454,13 +11494,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11497,14 +11532,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11552,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11554,14 +11589,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>44959</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11609,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11611,14 +11646,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45845</v>
+        <v>45463</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11631,7 +11666,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>18.7</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11668,14 +11703,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45334</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11688,7 +11723,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11725,14 +11760,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11744,13 +11779,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11787,14 +11817,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>44894</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11806,13 +11836,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11849,14 +11874,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45572</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11869,7 +11894,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11906,14 +11931,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>46042</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11925,13 +11950,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11968,14 +11988,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45958</v>
+        <v>46042</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11988,7 +12008,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12025,14 +12045,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>46042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12045,7 +12065,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12082,14 +12102,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45569</v>
+        <v>46041</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12102,7 +12122,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12139,14 +12159,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>46042</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12159,7 +12179,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12196,14 +12216,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45898</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12216,7 +12236,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12253,14 +12273,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45970</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12273,7 +12293,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12310,14 +12330,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45970</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12330,7 +12350,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12367,14 +12387,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>46048</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12387,7 +12407,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12424,14 +12444,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45525</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12443,13 +12463,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12486,14 +12501,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12506,7 +12521,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12543,14 +12558,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>44860</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12562,13 +12577,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12605,14 +12615,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>46050</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12624,13 +12634,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12667,14 +12672,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45938</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12687,7 +12692,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12724,14 +12729,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>46051</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12743,13 +12748,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>6.9</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12786,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45970</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12843,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45989</v>
+        <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12900,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45238</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12957,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45978</v>
+        <v>45034</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45989</v>
+        <v>45762</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13185,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>44693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>44928</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46042</v>
+        <v>45602</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46042</v>
+        <v>44810</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13413,14 +13413,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13470,14 +13470,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46042</v>
+        <v>45203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13527,14 +13527,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46042</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13546,8 +13546,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13584,14 +13589,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46041</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13609,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13641,14 +13646,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46048</v>
+        <v>45680</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13660,8 +13665,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13698,14 +13708,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45386</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13718,7 +13728,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13755,14 +13765,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45405</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13775,7 +13785,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13812,14 +13822,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>45405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13832,7 +13842,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13869,14 +13879,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45502</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13899,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13926,14 +13936,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45391</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13956,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13983,14 +13993,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45051</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14013,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14040,14 +14050,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46051</v>
+        <v>45478</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14060,7 +14070,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14097,14 +14107,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45970</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14127,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14154,14 +14164,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46050</v>
+        <v>45699</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14173,8 +14183,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14211,14 +14226,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>45079</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14231,7 +14246,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14268,14 +14283,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45938</v>
+        <v>44833</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14288,7 +14303,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14325,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46037</v>
+        <v>44814</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14344,13 +14359,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14387,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14407,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14444,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>45287</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14463,13 +14473,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14506,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46059</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14526,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14563,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14582,13 +14587,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 8310-2026</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46064.59166666667</v>
+        <v>44286</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14682,14 +14682,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14739,14 +14739,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 8259-2026</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46064</v>
+        <v>45334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14796,14 +14796,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 8260-2026</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46064.52855324074</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45434</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45238</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40376-2023</t>
+          <t>A 824-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45169</v>
+        <v>46030.36170138889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1647,8 +1647,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1657,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1675,305 +1680,300 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Hedblomster</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 40376-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 113-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44928</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 24158-2022</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44725</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>3.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Slåttergubbe</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 824-2026</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>46030.36170138889</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Hedblomster</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45315</v>
+        <v>45763</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,13 +3307,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3350,14 +3345,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>45680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3369,13 +3364,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3412,14 +3402,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45763</v>
+        <v>45128</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3422,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3469,14 +3459,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45680</v>
+        <v>45748</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3479,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3526,14 +3516,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45128</v>
+        <v>45315</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3545,8 +3535,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3578,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45748</v>
+        <v>45541</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3603,7 +3598,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3640,14 +3635,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45541</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3659,8 +3654,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3754,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45189</v>
+        <v>45677</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3773,13 +3773,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3816,14 +3811,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45677</v>
+        <v>45189</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3835,8 +3830,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45750.2624537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45250</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4044,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>45334</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45176</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45502</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44872</v>
+        <v>45502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4234,13 +4234,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4277,14 +4272,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44858</v>
+        <v>45176</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4297,7 +4292,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4334,14 +4329,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45342</v>
+        <v>44872</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4359,7 +4354,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>14.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4396,14 +4391,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>44858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4416,7 +4411,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4453,14 +4448,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45128</v>
+        <v>45342</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4472,8 +4467,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4510,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45569</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4567,14 +4567,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45569</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4586,13 +4586,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4636,7 +4631,7 @@
         <v>45792</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4686,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45128</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4706,7 +4701,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4750,7 +4745,7 @@
         <v>45203</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,14 +4795,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46059</v>
+        <v>45317</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4820,7 +4815,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4857,14 +4852,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46037</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,13 +4871,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4919,14 +4909,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4938,13 +4928,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4981,14 +4966,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45551</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,8 +4985,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5038,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45317</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5058,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5095,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5115,7 +5105,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5152,14 +5142,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45818</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5172,7 +5162,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5209,14 +5199,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8259-2026</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46064</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5229,7 +5219,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5266,14 +5256,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45551</v>
+        <v>45363</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,13 +5275,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5328,14 +5313,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5333,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5385,14 +5370,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45728</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5390,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5442,14 +5427,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8260-2026</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46064.52855324074</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5447,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5499,14 +5484,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8310-2026</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46064.59166666667</v>
+        <v>45824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5504,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5556,14 +5541,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45363</v>
+        <v>45176</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5561,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5613,14 +5598,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45728</v>
+        <v>45845</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5618,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5670,14 +5655,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45818</v>
+        <v>45838</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5675,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5727,14 +5712,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45104</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5732,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5784,14 +5769,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45176</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5789,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5841,14 +5826,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45104</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5861,7 +5846,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5898,14 +5883,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45187</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5903,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5955,14 +5940,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45824</v>
+        <v>45187</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5960,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6012,14 +5997,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45187</v>
+        <v>45839</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6032,7 +6017,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6069,14 +6054,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45187</v>
+        <v>44944</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6088,8 +6073,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6126,14 +6116,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44944</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6145,13 +6135,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6188,14 +6173,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44858</v>
+        <v>45315</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6209,11 +6194,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6250,14 +6235,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45839</v>
+        <v>46050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6270,7 +6255,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6307,14 +6292,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>44858</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6326,8 +6311,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6364,14 +6354,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45315</v>
+        <v>45938</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6383,13 +6373,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6433,7 +6418,7 @@
         <v>44608</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6483,14 +6468,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6503,7 +6488,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6540,14 +6525,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45386</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6560,7 +6545,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6597,14 +6582,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>45386</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6654,14 +6639,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45386</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6674,7 +6659,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6711,14 +6696,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6731,7 +6716,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6768,14 +6753,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44944</v>
+        <v>46051</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6787,13 +6772,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6830,14 +6810,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45155</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6849,8 +6829,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6887,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45226</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6907,7 +6892,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6944,14 +6929,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>44944</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6963,8 +6948,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7001,14 +6991,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7021,7 +7011,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7058,14 +7048,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45762</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7078,7 +7068,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7115,14 +7105,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45762</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7135,7 +7125,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7172,14 +7162,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7192,7 +7182,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>18.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7229,14 +7219,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45803</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7249,7 +7239,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7286,14 +7276,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45970</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7306,7 +7296,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7343,14 +7333,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45803</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7363,7 +7353,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7400,14 +7390,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>45155</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7420,7 +7410,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7457,14 +7447,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7477,7 +7467,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7514,14 +7504,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7534,7 +7524,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7571,14 +7561,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45845</v>
+        <v>45226</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7591,7 +7581,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7628,14 +7618,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45838</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7647,8 +7637,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7685,14 +7680,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45187</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7704,13 +7699,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7747,14 +7737,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7767,7 +7757,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7804,14 +7794,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45203</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7824,7 +7814,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7861,14 +7851,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7880,8 +7870,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7918,14 +7913,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7943,7 +7938,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7980,14 +7975,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45076</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7999,13 +7994,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8042,14 +8032,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44523</v>
+        <v>45958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8062,7 +8052,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8099,14 +8089,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8119,7 +8109,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8156,14 +8146,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8176,7 +8166,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8213,14 +8203,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44837</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8233,7 +8223,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8270,14 +8260,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45237</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8290,7 +8280,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8327,14 +8317,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44964</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8346,8 +8336,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8384,14 +8379,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8403,13 +8398,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>7.1</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8446,14 +8436,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45970</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8465,13 +8455,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8508,14 +8493,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>45898</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8528,7 +8513,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8565,14 +8550,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45845</v>
+        <v>45187</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8584,8 +8569,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>18.7</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8622,14 +8612,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8642,7 +8632,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8679,14 +8669,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45203</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8699,7 +8689,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8736,14 +8726,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45680</v>
+        <v>46037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,11 +8747,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8798,14 +8788,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8823,7 +8813,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8860,14 +8850,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45436</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,13 +8869,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8922,14 +8907,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 8259-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45187</v>
+        <v>46064</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8942,7 +8927,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8979,14 +8964,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45187</v>
+        <v>45203</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8999,7 +8984,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9036,14 +9021,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45103</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9056,7 +9041,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9093,14 +9078,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45103</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9113,7 +9098,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9150,14 +9135,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 8260-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>46064.52855324074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9170,7 +9155,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9207,14 +9192,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9226,8 +9211,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9264,14 +9254,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9289,7 +9279,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9326,14 +9316,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>46041</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,13 +9335,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9388,14 +9373,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>46048</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,13 +9392,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9450,14 +9430,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9469,8 +9449,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9507,14 +9492,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45958</v>
+        <v>44523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9527,7 +9512,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9564,14 +9549,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 8310-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>46064.59166666667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9584,7 +9569,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9621,14 +9606,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45537</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9640,13 +9625,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>9.5</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9683,14 +9663,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45970</v>
+        <v>46042</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9703,7 +9683,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9740,14 +9720,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45970</v>
+        <v>46042</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9760,7 +9740,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9797,14 +9777,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45898</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9817,7 +9797,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9854,14 +9834,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9874,7 +9854,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9911,14 +9891,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45989</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9931,7 +9911,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9968,14 +9948,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9988,7 +9968,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10025,14 +10005,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10082,14 +10062,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45572</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10102,7 +10082,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10139,14 +10119,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45728</v>
+        <v>44837</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10159,7 +10139,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10196,14 +10176,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>46059</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10215,13 +10195,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10258,14 +10233,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10278,7 +10253,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10315,14 +10290,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45435</v>
+        <v>46042</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10335,7 +10310,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10372,14 +10347,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44935</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10392,7 +10367,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10429,14 +10404,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10448,8 +10423,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10486,14 +10466,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45989</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10506,7 +10486,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10543,14 +10523,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10562,8 +10542,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10600,14 +10585,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45237</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10620,7 +10605,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10657,14 +10642,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10676,8 +10661,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10714,14 +10704,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>44964</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10734,7 +10724,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10771,14 +10761,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45989</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10790,13 +10780,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10833,14 +10818,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45978</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10853,7 +10838,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10890,14 +10875,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45330</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10911,11 +10896,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10952,14 +10937,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10971,13 +10956,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11014,14 +10994,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45989</v>
+        <v>45203</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11034,7 +11014,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11071,14 +11051,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45208</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11091,7 +11071,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11128,14 +11108,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45538</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11147,13 +11127,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11190,14 +11165,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45978</v>
+        <v>46042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11210,7 +11185,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11247,14 +11222,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45680</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11266,8 +11241,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11304,14 +11284,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45251</v>
+        <v>45436</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11323,8 +11303,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11361,14 +11346,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45316</v>
+        <v>45187</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11381,7 +11366,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11418,14 +11403,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45405</v>
+        <v>45187</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11438,7 +11423,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11475,14 +11460,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45103</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11495,7 +11480,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11532,14 +11517,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45103</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11552,7 +11537,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11589,14 +11574,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44959</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11609,7 +11594,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11646,14 +11631,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45463</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11665,8 +11650,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11703,14 +11693,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11723,7 +11713,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11760,14 +11750,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>45537</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11779,8 +11769,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11817,14 +11812,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44894</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11874,14 +11869,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45572</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11894,7 +11889,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11931,14 +11926,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46042</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11951,7 +11946,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11988,14 +11983,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46042</v>
+        <v>45572</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12008,7 +12003,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12045,14 +12040,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46042</v>
+        <v>45728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12065,7 +12060,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12102,14 +12097,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46041</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12122,7 +12117,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12159,14 +12154,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46042</v>
+        <v>45435</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12216,14 +12211,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>44935</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12236,7 +12231,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12273,14 +12268,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45208</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12293,7 +12288,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12330,14 +12325,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45538</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12349,8 +12344,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12387,14 +12387,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46048</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12444,14 +12444,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45525</v>
+        <v>45251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12501,14 +12501,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45316</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12558,14 +12558,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44860</v>
+        <v>45405</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12615,14 +12615,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46050</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12672,14 +12672,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45938</v>
+        <v>44959</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12729,14 +12729,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46051</v>
+        <v>45463</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12786,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45970</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12843,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45706</v>
+        <v>44894</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12900,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45238</v>
+        <v>45572</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12957,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45525</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>44860</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45034</v>
+        <v>45706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45762</v>
+        <v>45238</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13185,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44693</v>
+        <v>45034</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44928</v>
+        <v>45762</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45602</v>
+        <v>44693</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44810</v>
+        <v>44928</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13413,14 +13413,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>45602</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13470,14 +13470,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45203</v>
+        <v>44810</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13527,14 +13527,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13546,13 +13546,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13589,14 +13584,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13609,7 +13604,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13646,14 +13641,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45680</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13667,11 +13662,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13708,14 +13703,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45386</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13723,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13765,14 +13760,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45405</v>
+        <v>45680</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13784,8 +13779,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13822,14 +13822,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45405</v>
+        <v>45386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13879,14 +13879,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45502</v>
+        <v>45405</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13936,14 +13936,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45391</v>
+        <v>45405</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13993,14 +13993,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45051</v>
+        <v>45502</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14050,14 +14050,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45478</v>
+        <v>45391</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14107,14 +14107,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45051</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14164,14 +14164,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45699</v>
+        <v>45478</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14183,13 +14183,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14226,14 +14221,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45079</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14246,7 +14241,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14283,14 +14278,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44833</v>
+        <v>45699</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14302,8 +14297,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14340,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44814</v>
+        <v>45079</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>44833</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45287</v>
+        <v>44814</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45287</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44286</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14682,14 +14682,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14739,14 +14739,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45334</v>
+        <v>44286</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14796,14 +14796,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45434</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45238</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>45169</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44725</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45763</v>
+        <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,8 +3307,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3345,14 +3350,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45680</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,8 +3369,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3402,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45128</v>
+        <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3432,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3459,14 +3469,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45748</v>
+        <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3489,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3516,14 +3526,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45315</v>
+        <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3535,13 +3545,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3578,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45541</v>
+        <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3598,7 +3603,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3635,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,13 +3659,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3697,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45117</v>
+        <v>45541</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3754,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45677</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3811,14 +3811,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45189</v>
+        <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3830,13 +3830,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3873,14 +3868,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45104</v>
+        <v>45189</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3892,8 +3887,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45250</v>
+        <v>45334</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45334</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45104</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45502</v>
+        <v>45250</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4272,14 +4272,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45176</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4329,14 +4329,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44872</v>
+        <v>45502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4348,13 +4348,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4391,14 +4386,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44858</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4411,7 +4406,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4448,14 +4443,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45342</v>
+        <v>45176</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4467,13 +4462,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4510,14 +4500,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>44872</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4529,8 +4519,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>14.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4567,14 +4562,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45569</v>
+        <v>44858</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4587,7 +4582,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4619,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45792</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4643,8 +4638,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45128</v>
+        <v>45569</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4738,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45203</v>
+        <v>45342</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4757,8 +4757,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4795,14 +4800,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45317</v>
+        <v>45792</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4815,7 +4820,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4852,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4872,7 +4877,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4909,14 +4914,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>45203</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4929,7 +4934,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4966,14 +4971,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45551</v>
+        <v>45317</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,13 +4990,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5085,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45551</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5104,8 +5104,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5142,14 +5147,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45818</v>
+        <v>45845</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,14 +5204,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45838</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,14 +5261,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45363</v>
+        <v>45818</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5276,7 +5281,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5313,14 +5318,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5333,7 +5338,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5370,14 +5375,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45728</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5390,7 +5395,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5427,14 +5432,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5447,7 +5452,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5484,14 +5489,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45824</v>
+        <v>45363</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5504,7 +5509,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5541,14 +5546,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45176</v>
+        <v>45728</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5561,7 +5566,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5598,14 +5603,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45845</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5618,7 +5623,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5655,14 +5660,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45838</v>
+        <v>45824</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5680,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5712,14 +5717,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45104</v>
+        <v>45176</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5737,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5769,14 +5774,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45104</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5789,7 +5794,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5826,14 +5831,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45187</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5846,7 +5851,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5883,14 +5888,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5903,7 +5908,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5940,14 +5945,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45187</v>
+        <v>44944</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5959,8 +5964,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6004,7 +6014,7 @@
         <v>45839</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6054,14 +6064,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44944</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6073,13 +6083,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6116,14 +6121,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45315</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6135,8 +6140,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6173,14 +6183,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45315</v>
+        <v>44858</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6194,11 +6204,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6235,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46050</v>
+        <v>44608</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6255,7 +6265,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6292,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44858</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6317,7 +6327,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6354,14 +6364,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45938</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6374,7 +6384,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6411,14 +6421,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44608</v>
+        <v>45386</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6431,7 +6441,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6468,14 +6478,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45386</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6488,7 +6498,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6525,14 +6535,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6545,7 +6555,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6582,14 +6592,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45386</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6602,7 +6612,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6639,14 +6649,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45386</v>
+        <v>45845</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6659,7 +6669,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>18.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6696,14 +6706,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6716,7 +6726,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6753,14 +6763,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46051</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6772,8 +6782,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6810,14 +6825,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45989</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6829,13 +6844,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6872,14 +6882,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,7 +6902,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6936,7 +6946,7 @@
         <v>44944</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6991,14 +7001,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7011,7 +7021,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7048,14 +7058,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45762</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7067,8 +7077,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7105,14 +7120,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7124,8 +7139,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7162,14 +7182,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45845</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7182,7 +7202,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>18.7</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7219,14 +7239,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7239,7 +7259,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7276,14 +7296,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45970</v>
+        <v>45155</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,7 +7316,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7333,14 +7353,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45803</v>
+        <v>45226</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7353,7 +7373,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7390,14 +7410,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45155</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7410,7 +7430,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7447,14 +7467,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7467,7 +7487,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7504,14 +7524,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>45762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7524,7 +7544,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7561,14 +7581,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45226</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7581,7 +7601,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7618,14 +7638,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7637,13 +7657,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7680,14 +7695,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45958</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7715,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7737,14 +7752,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7757,7 +7772,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7794,14 +7809,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7814,7 +7829,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7851,14 +7866,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,13 +7885,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7913,14 +7923,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7938,7 +7948,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>8.300000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7975,14 +7985,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7995,7 +8005,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8032,14 +8042,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45958</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8051,8 +8061,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8089,14 +8104,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8109,7 +8124,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8146,14 +8161,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8165,8 +8180,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8203,14 +8223,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8223,7 +8243,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8260,14 +8280,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8280,7 +8300,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8317,14 +8337,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>45970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8336,13 +8356,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8379,14 +8394,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45970</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8399,7 +8414,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8436,14 +8451,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45970</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8456,7 +8471,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8493,14 +8508,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45898</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8513,7 +8528,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8550,14 +8565,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45187</v>
+        <v>45898</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8569,13 +8584,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8612,14 +8622,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45989</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8632,7 +8642,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8669,14 +8679,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>45978</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8689,7 +8699,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8726,14 +8736,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46037</v>
+        <v>45187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8751,7 +8761,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8788,14 +8798,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>45203</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8807,13 +8817,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8850,14 +8855,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8870,7 +8875,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8907,14 +8912,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8259-2026</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46064</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8927,7 +8932,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8964,14 +8969,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45203</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8983,8 +8988,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9021,14 +9031,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>45076</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9040,8 +9050,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9078,14 +9093,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>44523</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9098,7 +9113,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9135,14 +9150,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8260-2026</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46064.52855324074</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9155,7 +9170,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9192,14 +9207,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9211,13 +9226,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9254,14 +9264,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>46042</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9273,13 +9283,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9316,14 +9321,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46041</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9336,7 +9341,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9373,14 +9378,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46048</v>
+        <v>44837</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9393,7 +9398,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9430,14 +9435,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45076</v>
+        <v>45237</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,13 +9454,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9492,14 +9492,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44523</v>
+        <v>44964</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9549,14 +9549,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8310-2026</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46064.59166666667</v>
+        <v>45330</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9568,8 +9568,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9606,14 +9611,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9626,7 +9631,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9663,14 +9668,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46042</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9683,7 +9688,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9720,14 +9725,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46042</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9740,7 +9745,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9777,14 +9782,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9797,7 +9802,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9834,14 +9839,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45203</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9854,7 +9859,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9891,14 +9896,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45989</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9911,7 +9916,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9948,14 +9953,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45680</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9967,8 +9972,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10005,14 +10015,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>46050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,14 +10072,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45938</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10082,7 +10092,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10119,14 +10129,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44837</v>
+        <v>45436</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10138,8 +10148,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10176,14 +10191,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46059</v>
+        <v>46051</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10196,7 +10211,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10233,14 +10248,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45187</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10253,7 +10268,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10290,14 +10305,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46042</v>
+        <v>45187</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10310,7 +10325,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10347,14 +10362,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45970</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10367,7 +10382,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10404,14 +10419,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45103</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10423,13 +10438,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10466,14 +10476,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10486,7 +10496,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10523,14 +10533,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10542,13 +10552,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10585,14 +10590,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45237</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10605,7 +10610,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10642,14 +10647,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,13 +10666,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10704,14 +10704,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44964</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10723,8 +10723,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.1</v>
+        <v>5.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10761,14 +10766,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45989</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10781,7 +10786,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10818,14 +10823,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45978</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10837,8 +10842,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10875,14 +10885,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45330</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10894,13 +10904,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10937,14 +10942,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>46037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10956,8 +10961,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10994,14 +11004,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45203</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11013,8 +11023,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11051,14 +11066,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11071,7 +11086,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11108,14 +11123,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 8259-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>46064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11128,7 +11143,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11165,14 +11180,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46042</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11185,7 +11200,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11222,14 +11237,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 8260-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45680</v>
+        <v>46064.52855324074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11241,13 +11256,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11284,14 +11294,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45436</v>
+        <v>45537</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11309,7 +11319,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11346,14 +11356,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45187</v>
+        <v>46041</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11366,7 +11376,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11403,14 +11413,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45187</v>
+        <v>46048</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11423,7 +11433,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11460,14 +11470,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 8310-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45103</v>
+        <v>46064.59166666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11480,7 +11490,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11517,14 +11527,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45103</v>
+        <v>46042</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11537,7 +11547,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11574,14 +11584,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>46042</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11594,7 +11604,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11631,14 +11641,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11650,13 +11660,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11693,14 +11698,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11713,7 +11718,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11750,14 +11755,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45537</v>
+        <v>46042</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11769,13 +11774,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11812,14 +11812,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11869,14 +11869,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11926,14 +11926,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>46059</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>45572</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12097,14 +12097,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12154,14 +12154,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45435</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12211,14 +12211,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44935</v>
+        <v>45435</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12268,14 +12268,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45208</v>
+        <v>44935</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12325,14 +12325,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45538</v>
+        <v>45208</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12344,13 +12344,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12387,14 +12382,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45538</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12406,8 +12401,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12444,14 +12444,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45251</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12501,14 +12501,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45316</v>
+        <v>45251</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12558,14 +12558,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45405</v>
+        <v>45316</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12615,14 +12615,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45405</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12672,14 +12672,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44959</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12729,14 +12729,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45463</v>
+        <v>44959</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12786,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45463</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12843,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44894</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12900,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45572</v>
+        <v>44894</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12957,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45525</v>
+        <v>45572</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44860</v>
+        <v>45525</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45706</v>
+        <v>44860</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45238</v>
+        <v>45706</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13185,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45034</v>
+        <v>45238</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45762</v>
+        <v>45034</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44693</v>
+        <v>45762</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44928</v>
+        <v>44693</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13413,14 +13413,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45602</v>
+        <v>44928</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13470,14 +13470,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44810</v>
+        <v>45602</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13527,14 +13527,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>44810</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13584,14 +13584,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45203</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13641,14 +13641,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13660,13 +13660,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13703,14 +13698,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13722,8 +13717,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13760,14 +13760,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45680</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13779,13 +13779,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13822,14 +13817,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45386</v>
+        <v>45680</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13841,8 +13836,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13879,14 +13879,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45405</v>
+        <v>45386</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13936,14 +13936,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>45405</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13993,14 +13993,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45502</v>
+        <v>45405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14050,14 +14050,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45391</v>
+        <v>45502</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14107,14 +14107,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45051</v>
+        <v>45391</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14164,14 +14164,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45478</v>
+        <v>45051</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14221,14 +14221,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45478</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14278,14 +14278,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45699</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14297,13 +14297,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14340,14 +14335,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45079</v>
+        <v>45699</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14359,8 +14354,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44833</v>
+        <v>45079</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44814</v>
+        <v>44833</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>44814</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45287</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45287</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14682,14 +14682,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14739,14 +14739,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44286</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14796,14 +14796,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>44286</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 39855-2022</t>
+          <t>A 20194-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44819</v>
+        <v>45434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -699,21 +699,110 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Naverlönn
+Skogsalm
+Ask
+Scharlakansskål
+Stor häxört</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 39855-2022</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Skogsknipprot
@@ -722,120 +811,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 20194-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45434</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Naverlönn
-Skogsalm
-Ask
-Scharlakansskål
-Stor häxört</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2823-2025</t>
+          <t>A 27738-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,17 +1034,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.1</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1067,222 +1067,222 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Bokvårtlav
+Sydlig sotticka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 24801-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Småvänderot
+Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 2823-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Borsttåg
 Grönvit nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 27738-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45815</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Bokvårtlav
-Sydlig sotticka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 24801-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45799</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Småvänderot
-Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 31351-2022</t>
+          <t>A 56742-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44774</v>
+        <v>45238</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>13.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1328,132 +1328,132 @@
         <v>3</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett
+Scharlakansskål
+Skogsödla</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 31351-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Fjällvråk
 Grönsångare</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 56742-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45238</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Scharlakansskål
-Skogsödla</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 824-2026</t>
+          <t>A 113-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46030.36170138889</v>
+        <v>44928</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1647,16 +1647,11 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1687,208 +1682,213 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 824-2026</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>46030.36170138889</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Hedblomster</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 40376-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45169</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>2.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 113-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44928</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 113-2023 artfynd.xlsx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 113-2023 karta.png", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 113-2023 FSC-klagomål.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 113-2023 FSC-klagomål mail.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 113-2023 tillsynsbegäran.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 113-2023 tillsynsbegäran mail.docx", "A 113-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>44725</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3231,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45315</v>
+        <v>45203</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,13 +3307,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3350,14 +3345,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>45363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,11 +3362,6 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3412,14 +3402,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45763</v>
+        <v>45405</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3422,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3469,14 +3459,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45680</v>
+        <v>45330</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3488,8 +3478,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3526,14 +3521,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45128</v>
+        <v>44872</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3545,8 +3540,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>14.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45748</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3602,8 +3602,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3640,14 +3645,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>44860</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3660,7 +3665,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3697,14 +3702,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45541</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3717,7 +3722,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3754,14 +3759,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>44810</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3774,7 +3779,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3811,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45117</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3831,7 +3836,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3868,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45189</v>
+        <v>44286</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3887,13 +3892,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45677</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45334</v>
+        <v>44894</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45104</v>
+        <v>45128</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45250</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4272,14 +4272,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>45334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4329,14 +4329,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45502</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4386,14 +4386,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45845</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>18.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4443,14 +4443,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45176</v>
+        <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,8 +4462,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4500,14 +4505,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44872</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,13 +4524,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>14.3</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44858</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,8 +4581,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4619,14 +4624,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,13 +4643,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4681,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45569</v>
+        <v>45478</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4738,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45342</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45792</v>
+        <v>45155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45128</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,8 +4876,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4914,14 +4919,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45203</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4934,7 +4939,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4971,14 +4976,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45317</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4990,8 +4995,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5028,14 +5038,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45958</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5048,7 +5058,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5085,14 +5095,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45551</v>
+        <v>44944</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,7 +5120,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5147,14 +5157,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45845</v>
+        <v>45838</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5167,7 +5177,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5204,14 +5214,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45838</v>
+        <v>45569</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5224,7 +5234,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5261,14 +5271,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45818</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5281,7 +5291,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5318,14 +5328,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>45845</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5338,7 +5348,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5375,14 +5385,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5395,7 +5405,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5432,14 +5442,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 23484-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45792</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5452,7 +5462,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5489,14 +5499,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45363</v>
+        <v>45898</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5509,7 +5519,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5546,14 +5556,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45728</v>
+        <v>45970</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5566,7 +5576,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5603,14 +5613,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45970</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5623,7 +5633,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5660,14 +5670,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45824</v>
+        <v>45104</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5680,7 +5690,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5717,14 +5727,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45176</v>
+        <v>45386</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,7 +5747,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5774,14 +5784,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45104</v>
+        <v>45386</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5804,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5831,14 +5841,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45187</v>
+        <v>44858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5851,7 +5861,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5888,14 +5898,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45187</v>
+        <v>45203</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5908,7 +5918,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5945,14 +5955,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44944</v>
+        <v>45405</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5964,13 +5974,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6007,14 +6012,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45839</v>
+        <v>45405</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6027,7 +6032,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6064,14 +6069,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45818</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6084,7 +6089,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6121,14 +6126,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45315</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,13 +6145,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6183,14 +6183,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44858</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6202,13 +6202,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6245,14 +6240,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44608</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6264,8 +6259,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6321,13 +6321,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6371,7 +6366,7 @@
         <v>45572.2912037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6421,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45386</v>
+        <v>45824</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6441,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6478,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45386</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6497,8 +6492,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6535,14 +6535,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45572</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6592,14 +6592,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>45763</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6649,14 +6649,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45845</v>
+        <v>45238</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>18.7</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6706,14 +6706,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45176</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6763,14 +6763,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45315</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6784,11 +6784,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6825,14 +6825,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45989</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6882,14 +6882,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6939,14 +6939,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44944</v>
+        <v>45839</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6958,13 +6958,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7001,14 +6996,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45251</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,14 +7053,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7077,13 +7072,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7120,14 +7110,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7139,13 +7129,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>8.300000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7182,14 +7167,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45989</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7202,7 +7187,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7239,14 +7224,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7259,7 +7244,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7296,14 +7281,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45155</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7316,7 +7301,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7353,14 +7338,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45226</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7373,7 +7358,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7410,14 +7395,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45978</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7430,7 +7415,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7467,14 +7452,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7487,7 +7472,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7524,14 +7509,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45762</v>
+        <v>45317</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7544,7 +7529,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7581,14 +7566,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45989</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7601,7 +7586,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7638,14 +7623,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7658,7 +7643,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7695,14 +7680,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45958</v>
+        <v>45762</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7715,7 +7700,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7752,14 +7737,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45803</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7772,7 +7757,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7809,14 +7794,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,7 +7814,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7866,14 +7851,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7886,7 +7871,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7923,14 +7908,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7942,13 +7927,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7985,14 +7965,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>45602</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8005,7 +7985,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8042,14 +8022,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>45803</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8061,13 +8041,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8104,14 +8079,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,7 +8099,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8161,14 +8136,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>45677</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,13 +8155,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8223,14 +8193,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8213,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8280,14 +8250,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8300,7 +8270,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8337,14 +8307,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45970</v>
+        <v>45525</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8357,7 +8327,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8394,14 +8364,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45970</v>
+        <v>45728</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8414,7 +8384,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8451,14 +8421,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45189</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8470,8 +8440,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8508,14 +8483,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>46042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8528,7 +8503,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8565,14 +8540,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45898</v>
+        <v>45187</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8585,7 +8560,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8622,14 +8597,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45989</v>
+        <v>45187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8642,7 +8617,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8679,14 +8654,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45978</v>
+        <v>44523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8699,7 +8674,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8736,14 +8711,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45187</v>
+        <v>45680</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8757,11 +8732,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8798,14 +8773,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45203</v>
+        <v>45706</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8818,7 +8793,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8855,14 +8830,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8875,7 +8850,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8912,14 +8887,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8932,7 +8907,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8969,14 +8944,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,13 +8963,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9031,14 +9001,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45076</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,13 +9020,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9093,14 +9058,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44523</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9113,7 +9078,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9150,14 +9115,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9170,7 +9135,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9207,14 +9172,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9227,7 +9192,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9264,14 +9229,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46042</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9284,7 +9249,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9321,14 +9286,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>46051</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9341,7 +9306,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9378,14 +9343,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44837</v>
+        <v>45970</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9398,7 +9363,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9435,14 +9400,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45237</v>
+        <v>45076</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9454,8 +9419,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9492,14 +9462,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44964</v>
+        <v>45538</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9511,8 +9481,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9549,14 +9524,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45330</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9568,13 +9543,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9611,14 +9581,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>46050</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9631,7 +9601,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9668,14 +9638,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9688,7 +9658,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9725,14 +9695,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45938</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9745,7 +9715,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9782,14 +9752,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>44608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9802,7 +9772,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9839,14 +9809,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45203</v>
+        <v>46037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9858,8 +9828,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9896,14 +9871,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9916,7 +9891,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9953,14 +9928,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45680</v>
+        <v>45762</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9972,13 +9947,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10015,14 +9985,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46050</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10034,8 +10004,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10072,14 +10047,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45938</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10092,7 +10067,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10129,14 +10104,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45436</v>
+        <v>44964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10148,13 +10123,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10191,14 +10161,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46051</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10210,8 +10180,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10248,14 +10223,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 8259-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45187</v>
+        <v>46064</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10268,7 +10243,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10305,14 +10280,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 8260-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45187</v>
+        <v>46064.52855324074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10325,7 +10300,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10362,14 +10337,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45970</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10382,7 +10357,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10419,14 +10394,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45103</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10439,7 +10414,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10476,14 +10451,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45103</v>
+        <v>45391</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10496,7 +10471,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10533,14 +10508,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>45463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10553,7 +10528,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10590,14 +10565,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>46042</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10610,7 +10585,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10647,14 +10622,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>46042</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10667,7 +10642,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10704,14 +10679,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>46048</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10723,13 +10698,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10766,14 +10736,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10786,7 +10756,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10823,14 +10793,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 8310-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>46064.59166666667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10842,13 +10812,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10885,14 +10850,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>46042</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10905,7 +10870,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10942,14 +10907,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46037</v>
+        <v>46041</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10961,13 +10926,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11004,14 +10964,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>45342</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11029,7 +10989,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11066,14 +11026,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>44935</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11086,7 +11046,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11123,14 +11083,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8259-2026</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46064</v>
+        <v>46059</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11143,7 +11103,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11180,14 +11140,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11199,8 +11159,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11237,14 +11202,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8260-2026</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46064.52855324074</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11256,8 +11221,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11294,14 +11264,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45537</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11319,7 +11289,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11356,14 +11326,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46041</v>
+        <v>45034</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11376,7 +11346,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11413,14 +11383,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46048</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11433,7 +11403,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11470,14 +11440,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8310-2026</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46064.59166666667</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11490,7 +11460,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11527,14 +11497,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46042</v>
+        <v>45315</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11546,8 +11516,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11584,14 +11559,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46042</v>
+        <v>45117</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11604,7 +11579,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11641,14 +11616,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11661,7 +11636,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11698,14 +11673,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45187</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11718,7 +11693,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11755,14 +11730,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46042</v>
+        <v>45187</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11775,7 +11750,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11812,14 +11787,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>45502</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11832,7 +11807,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11869,14 +11844,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>45435</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11889,7 +11864,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11926,14 +11901,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46059</v>
+        <v>45316</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11946,7 +11921,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11983,14 +11958,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45572</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12040,14 +12015,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45728</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12060,7 +12035,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12097,14 +12072,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>45226</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12117,7 +12092,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12154,14 +12129,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45051</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12174,7 +12149,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12211,14 +12186,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45435</v>
+        <v>45187</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12230,8 +12205,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12268,14 +12248,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44935</v>
+        <v>45680</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12288,7 +12268,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12332,7 +12312,7 @@
         <v>45208</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12382,14 +12362,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45538</v>
+        <v>45103</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12401,13 +12381,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12444,14 +12419,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12464,7 +12439,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12501,14 +12476,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45251</v>
+        <v>45250</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12521,7 +12496,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12558,14 +12533,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45316</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12578,7 +12553,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12615,14 +12590,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45405</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12635,7 +12610,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12672,14 +12647,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45680</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12691,8 +12666,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12729,14 +12709,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44959</v>
+        <v>45287</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12749,7 +12729,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12786,14 +12766,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45463</v>
+        <v>45203</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12806,7 +12786,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12843,14 +12823,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12863,7 +12843,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12900,14 +12880,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44894</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12919,8 +12899,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12957,14 +12942,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45572</v>
+        <v>44959</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12977,7 +12962,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13014,14 +12999,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45525</v>
+        <v>45502</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13034,7 +13019,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13071,14 +13056,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44860</v>
+        <v>45728</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13091,7 +13076,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13128,14 +13113,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45706</v>
+        <v>45748</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13148,7 +13133,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13185,14 +13170,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45238</v>
+        <v>44814</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13205,7 +13190,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13242,14 +13227,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45034</v>
+        <v>45541</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13262,7 +13247,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13299,14 +13284,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45762</v>
+        <v>45079</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13319,7 +13304,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13356,14 +13341,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44693</v>
+        <v>45572</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13376,7 +13361,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13413,14 +13398,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44928</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13418,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13470,14 +13455,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45602</v>
+        <v>45436</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13489,8 +13474,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13527,14 +13517,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44810</v>
+        <v>44928</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13537,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13584,14 +13574,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>44837</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13594,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13641,14 +13631,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45203</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13661,7 +13651,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13698,14 +13688,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13717,13 +13707,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13760,14 +13745,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>45699</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13779,8 +13764,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13817,14 +13807,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45680</v>
+        <v>44944</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13838,11 +13828,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13879,14 +13869,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45386</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13889,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13936,14 +13926,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45405</v>
+        <v>45237</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13946,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13993,14 +13983,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45405</v>
+        <v>45104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14013,7 +14003,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14050,14 +14040,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45502</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14070,7 +14060,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14107,14 +14097,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45391</v>
+        <v>45386</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14117,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14164,14 +14154,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45051</v>
+        <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14183,8 +14173,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14221,14 +14216,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45478</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14241,7 +14236,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14278,14 +14273,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45128</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14298,7 +14293,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14335,14 +14330,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45699</v>
+        <v>45551</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14356,11 +14351,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14397,14 +14392,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45079</v>
+        <v>44833</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14417,7 +14412,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14454,14 +14449,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44833</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14473,8 +14468,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44814</v>
+        <v>45103</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>45630.46747685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14625,14 +14625,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45287</v>
+        <v>44693</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14682,14 +14682,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45176</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14739,14 +14739,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45203</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14796,14 +14796,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44286</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,14 +661,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 20194-2024</t>
+          <t>A 39855-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45434</v>
+        <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -699,21 +699,110 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Skogsknipprot
+Fläcknycklar
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 20194-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Naverlönn
 Skogsalm
@@ -722,120 +811,31 @@
 Stor häxört</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 20194-2024 artfynd.xlsx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 20194-2024 karta.png", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 20194-2024 FSC-klagomål.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 20194-2024 FSC-klagomål mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 20194-2024 tillsynsbegäran.docx", "A 20194-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 20194-2024 tillsynsbegäran mail.docx", "A 20194-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 39855-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44819</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Skogsknipprot
-Fläcknycklar
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 39855-2022 artfynd.xlsx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 39855-2022 karta.png", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 39855-2022 FSC-klagomål.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 39855-2022 FSC-klagomål mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 39855-2022 tillsynsbegäran.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 39855-2022 tillsynsbegäran mail.docx", "A 39855-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,14 +1014,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 27738-2025</t>
+          <t>A 2823-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45815</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1034,17 +1034,17 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>21.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1067,222 +1067,222 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg
+Grönvit nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 27738-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Bokvårtlav
 Sydlig sotticka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 27738-2025 artfynd.xlsx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 27738-2025 karta.png", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 27738-2025 FSC-klagomål.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 27738-2025 FSC-klagomål mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 27738-2025 tillsynsbegäran.docx", "A 27738-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 27738-2025 tillsynsbegäran mail.docx", "A 27738-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 24801-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45799</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>4.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Ask
 Småvänderot
 Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24801-2025 artfynd.xlsx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24801-2025 karta.png", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24801-2025 FSC-klagomål.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24801-2025 FSC-klagomål mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24801-2025 tillsynsbegäran.docx", "A 24801-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24801-2025 tillsynsbegäran mail.docx", "A 24801-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 2823-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45677</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg
-Grönvit nattviol
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 2823-2025 artfynd.xlsx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 2823-2025 karta.png", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 2823-2025 FSC-klagomål.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 2823-2025 FSC-klagomål mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 2823-2025 tillsynsbegäran.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 2823-2025 tillsynsbegäran mail.docx", "A 2823-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 56742-2023</t>
+          <t>A 31351-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45238</v>
+        <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1328,132 +1328,132 @@
         <v>3</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Fjällvråk
+Grönsångare</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 56742-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Scharlakansskål
 Skogsödla</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 56742-2023 artfynd.xlsx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 56742-2023 karta.png", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 56742-2023 FSC-klagomål.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 56742-2023 FSC-klagomål mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 56742-2023 tillsynsbegäran.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 56742-2023 tillsynsbegäran mail.docx", "A 56742-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 56742-2023 prioriterade fågelarter.docx", "A 56742-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 31351-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Fjällvråk
-Grönsångare</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 31351-2022 artfynd.xlsx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 31351-2022 karta.png", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 31351-2022 FSC-klagomål.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 31351-2022 FSC-klagomål mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 31351-2022 tillsynsbegäran.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 31351-2022 tillsynsbegäran mail.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 31351-2022 prioriterade fågelarter.docx", "A 31351-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25479-2025</t>
+          <t>A 40376-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45802</v>
+        <v>45169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,17 +1563,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,31 +1597,35 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Lundvårlök</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1639,7 @@
         <v>44928</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,14 +1717,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 824-2026</t>
+          <t>A 24158-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46030.36170138889</v>
+        <v>44725</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1730,18 +1734,13 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1772,134 +1771,135 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 824-2026</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46030.36170138889</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Hedblomster</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 824-2026 artfynd.xlsx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 824-2026 karta.png", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 824-2026 FSC-klagomål.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 824-2026 FSC-klagomål mail.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 824-2026 tillsynsbegäran.docx", "A 824-2026")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 824-2026 tillsynsbegäran mail.docx", "A 824-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 40376-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45169</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 40376-2023 artfynd.xlsx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 40376-2023 karta.png", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 40376-2023 FSC-klagomål.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 40376-2023 FSC-klagomål mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 40376-2023 tillsynsbegäran.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 40376-2023 tillsynsbegäran mail.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/fåglar/A 40376-2023 prioriterade fågelarter.docx", "A 40376-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24158-2022</t>
+          <t>A 25479-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44725</v>
+        <v>45802</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1912,19 +1912,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1936,41 +1936,41 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Slåttergubbe</t>
+          <t>Lundvårlök</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 24158-2022 artfynd.xlsx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/artfynd/A 25479-2025 artfynd.xlsx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 24158-2022 karta.png", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/kartor/A 25479-2025 karta.png", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 24158-2022 FSC-klagomål.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomål/A 25479-2025 FSC-klagomål.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 24158-2022 FSC-klagomål mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/klagomålsmail/A 25479-2025 FSC-klagomål mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 24158-2022 tillsynsbegäran.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsyn/A 25479-2025 tillsynsbegäran.docx", "A 25479-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 24158-2022 tillsynsbegäran mail.docx", "A 24158-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1266/tillsynsmail/A 25479-2025 tillsynsbegäran mail.docx", "A 25479-2025")</f>
         <v/>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3231,14 +3231,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43380-2022</t>
+          <t>A 24670-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44834.65802083333</v>
+        <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47609-2023</t>
+          <t>A 2979-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45203</v>
+        <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,8 +3307,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3345,14 +3350,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9974-2024</t>
+          <t>A 6533-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45363</v>
+        <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3362,6 +3367,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3402,14 +3412,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15970-2024</t>
+          <t>A 18609-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45405</v>
+        <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3432,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3459,14 +3469,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5163-2024</t>
+          <t>A 3471-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45330</v>
+        <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,13 +3488,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3521,14 +3526,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51826-2022</t>
+          <t>A 33359-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44872</v>
+        <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3540,13 +3545,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>14.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3583,14 +3583,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49386-2025</t>
+          <t>A 15631-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45938.64427083333</v>
+        <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3602,13 +3602,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3645,14 +3640,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49071-2022</t>
+          <t>A 37757-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44860</v>
+        <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3660,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3702,14 +3697,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21713-2025</t>
+          <t>A 31596-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45783.53788194444</v>
+        <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3722,7 +3717,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3759,14 +3754,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37724-2022</t>
+          <t>A 44613-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44810</v>
+        <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3778,8 +3773,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37728-2022</t>
+          <t>A 2816-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44810.56689814815</v>
+        <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15768-2021</t>
+          <t>A 58360-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44286</v>
+        <v>45250</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52310-2023</t>
+          <t>A 28785-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45224.62993055556</v>
+        <v>45104</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56818-2022</t>
+          <t>A 16101-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44894</v>
+        <v>45750.2624537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2170-2025</t>
+          <t>A 4756-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45673.31113425926</v>
+        <v>45688.4693287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33359-2023</t>
+          <t>A 31115-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45128</v>
+        <v>45502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54894-2023</t>
+          <t>A 51826-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45236.63965277778</v>
+        <v>44872</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4177,8 +4177,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>14.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4215,14 +4220,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32546-2021</t>
+          <t>A 42724-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44374.9483912037</v>
+        <v>45176</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4235,7 +4240,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4272,14 +4277,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 5619-2024</t>
+          <t>A 48397-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45334</v>
+        <v>44858</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4292,7 +4297,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4329,14 +4334,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50200-2025</t>
+          <t>A 6886-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45943.65060185185</v>
+        <v>45342</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4348,8 +4353,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4386,14 +4396,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34147-2025</t>
+          <t>A 33358-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45845</v>
+        <v>45128</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4406,7 +4416,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>18.7</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4443,14 +4453,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36689-2024</t>
+          <t>A 47641-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45537</v>
+        <v>45203</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,13 +4472,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>9.5</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4505,14 +4510,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38080-2024</t>
+          <t>A 39507-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45545.31652777778</v>
+        <v>45551</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4524,8 +4529,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4562,14 +4572,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 666-2024</t>
+          <t>A 39298-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45300.32600694444</v>
+        <v>45166.55553240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,13 +4591,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4624,14 +4629,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16665-2025</t>
+          <t>A 3346-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45754.42253472222</v>
+        <v>45317</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4644,7 +4649,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4681,14 +4686,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28746-2024</t>
+          <t>A 788-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45478</v>
+        <v>45300.56560185185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4701,7 +4706,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4738,14 +4743,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51757-2025</t>
+          <t>A 9974-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45951.62902777778</v>
+        <v>45363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4757,13 +4762,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4800,14 +4800,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37082-2023</t>
+          <t>A 11943-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45155</v>
+        <v>45728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4857,14 +4857,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52929-2025</t>
+          <t>A 42715-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45957.62021990741</v>
+        <v>45176</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,13 +4876,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4919,14 +4914,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52690-2025</t>
+          <t>A 28550-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45956.48366898148</v>
+        <v>45818</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4939,7 +4934,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4976,14 +4971,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52930-2025</t>
+          <t>A 28918-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45957.6219212963</v>
+        <v>45104</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,13 +4990,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5038,14 +5028,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53102-2025</t>
+          <t>A 9612-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45958</v>
+        <v>45715.65923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5058,7 +5048,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5095,14 +5085,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2752-2023</t>
+          <t>A 43932-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44944</v>
+        <v>45187</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,13 +5104,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5157,14 +5142,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32524-2025</t>
+          <t>A 43935-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45838</v>
+        <v>45187</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5162,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5214,14 +5199,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43711-2024</t>
+          <t>A 29244-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45569</v>
+        <v>45824.36681712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5219,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5271,14 +5256,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44316-2025</t>
+          <t>A 29354-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45916.39457175926</v>
+        <v>45824</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5328,14 +5313,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34154-2025</t>
+          <t>A 2747-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45845</v>
+        <v>44944</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5347,8 +5332,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5385,14 +5375,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54765-2025</t>
+          <t>A 48427-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45966.60334490741</v>
+        <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5404,8 +5394,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5442,14 +5437,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23484-2025</t>
+          <t>A 8084-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45792</v>
+        <v>44608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5457,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5499,14 +5494,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40994-2025</t>
+          <t>A 43828-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45898</v>
+        <v>45572.2912037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5514,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5556,14 +5551,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55304-2025</t>
+          <t>A 13225-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45970</v>
+        <v>45386</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5571,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5613,14 +5608,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55306-2025</t>
+          <t>A 13226-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45970</v>
+        <v>45386</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5628,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5670,14 +5665,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28785-2023</t>
+          <t>A 47552-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45104</v>
+        <v>45203.38798611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5685,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5727,14 +5722,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13225-2024</t>
+          <t>A 32958-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45386</v>
+        <v>45839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5742,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5784,14 +5779,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13226-2024</t>
+          <t>A 32459-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45386</v>
+        <v>45838.41444444445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5799,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5841,14 +5836,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48397-2022</t>
+          <t>A 2981-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44858</v>
+        <v>45315</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5860,8 +5855,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5898,14 +5898,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47612-2023</t>
+          <t>A 37756-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45203</v>
+        <v>45541.74803240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5955,14 +5955,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15998-2024</t>
+          <t>A 2752-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45405</v>
+        <v>44944</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5974,8 +5974,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6012,14 +6017,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16001-2024</t>
+          <t>A 34154-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45405</v>
+        <v>45845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6032,7 +6037,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6069,14 +6074,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28550-2025</t>
+          <t>A 32524-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45818</v>
+        <v>45838</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6089,7 +6094,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6126,14 +6131,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9612-2025</t>
+          <t>A 37082-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45715.65923611111</v>
+        <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6146,7 +6151,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6183,14 +6188,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55942-2025</t>
+          <t>A 44316-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45973.45210648148</v>
+        <v>45916.39457175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6203,7 +6208,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6240,14 +6245,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4555-2025</t>
+          <t>A 54431-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45687.43989583333</v>
+        <v>45226</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6259,13 +6264,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29244-2025</t>
+          <t>A 28625-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45824.36681712963</v>
+        <v>45103.60590277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43828-2024</t>
+          <t>A 38080-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45572.2912037037</v>
+        <v>45545.31652777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6416,14 +6416,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29354-2025</t>
+          <t>A 36355-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45824</v>
+        <v>45868.50842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6473,14 +6473,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 57269-2025</t>
+          <t>A 36362-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45979.67579861111</v>
+        <v>45868.5252662037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,13 +6492,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6535,14 +6530,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44135-2024</t>
+          <t>A 18360-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45572</v>
+        <v>45762</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6555,7 +6550,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6592,14 +6587,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18609-2025</t>
+          <t>A 36369-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45763</v>
+        <v>45868.54038194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6612,7 +6607,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6649,14 +6644,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56750-2023</t>
+          <t>A 13633-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45238</v>
+        <v>45390.42027777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6669,7 +6664,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6706,14 +6701,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42715-2023</t>
+          <t>A 44816-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45176</v>
+        <v>45190.51157407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6726,7 +6721,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6763,14 +6758,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2981-2024</t>
+          <t>A 28493-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45315</v>
+        <v>45103.44575231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6782,13 +6777,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6825,14 +6815,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13633-2024</t>
+          <t>A 25552-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45390.42027777778</v>
+        <v>45803</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,7 +6835,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6882,14 +6872,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32459-2025</t>
+          <t>A 43879-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45838.41444444445</v>
+        <v>45187</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6901,8 +6891,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6939,14 +6934,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32958-2025</t>
+          <t>A 38147-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45839</v>
+        <v>45882.58765046296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6959,7 +6954,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6996,14 +6991,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58641-2023</t>
+          <t>A 47609-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45251</v>
+        <v>45203</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7016,7 +7011,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7053,14 +7048,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59284-2025</t>
+          <t>A 49386-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45988.72927083333</v>
+        <v>45938.64427083333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7072,8 +7067,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7110,14 +7110,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37756-2024</t>
+          <t>A 6591-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45541.74803240741</v>
+        <v>45700.30478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7167,14 +7167,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59308-2025</t>
+          <t>A 34147-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45989</v>
+        <v>45845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>18.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7224,14 +7224,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59306-2025</t>
+          <t>A 50200-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45989.25456018518</v>
+        <v>45943.65060185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7281,14 +7281,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59305-2025</t>
+          <t>A 43882-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45989.25054398148</v>
+        <v>45187.65003472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7300,8 +7300,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7338,14 +7343,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59307-2025</t>
+          <t>A 23328-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45989.25509259259</v>
+        <v>45076</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7357,8 +7362,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7395,14 +7405,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57017-2025</t>
+          <t>A 67426-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45978</v>
+        <v>44523</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7415,7 +7425,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7452,14 +7462,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18603-2025</t>
+          <t>A 3239-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45763.49189814815</v>
+        <v>44946.89586805556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,7 +7482,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7509,14 +7519,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3346-2024</t>
+          <t>A 60963-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45317</v>
+        <v>45261.46871527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7529,7 +7539,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7566,14 +7576,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59304-2025</t>
+          <t>A 51757-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45989</v>
+        <v>45951.62902777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7585,8 +7595,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7623,14 +7638,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 788-2024</t>
+          <t>A 43685-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45300.56560185185</v>
+        <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7643,7 +7658,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7680,14 +7695,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18360-2025</t>
+          <t>A 52690-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45762</v>
+        <v>45956.48366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7700,7 +7715,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7737,14 +7752,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36355-2025</t>
+          <t>A 52930-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45868.50842592592</v>
+        <v>45957.6219212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7756,8 +7771,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7794,14 +7814,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36362-2025</t>
+          <t>A 52929-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45868.5252662037</v>
+        <v>45957.62021990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7813,8 +7833,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7851,14 +7876,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36369-2025</t>
+          <t>A 55265-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45868.54038194445</v>
+        <v>45237</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7871,7 +7896,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7908,14 +7933,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60624-2025</t>
+          <t>A 6056-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45996.40064814815</v>
+        <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7928,7 +7953,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7965,14 +7990,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50715-2024</t>
+          <t>A 5163-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45602</v>
+        <v>45330</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7984,8 +8009,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8022,14 +8052,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25552-2025</t>
+          <t>A 53102-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45803</v>
+        <v>45958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8042,7 +8072,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8079,14 +8109,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3192-2026</t>
+          <t>A 18603-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46041.46335648148</v>
+        <v>45763.49189814815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8099,7 +8129,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8136,14 +8166,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2816-2025</t>
+          <t>A 54765-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45677</v>
+        <v>45966.60334490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8156,7 +8186,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8193,14 +8223,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16101-2025</t>
+          <t>A 47612-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45750.2624537037</v>
+        <v>45203</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8213,7 +8243,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8250,14 +8280,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38147-2025</t>
+          <t>A 55304-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45882.58765046296</v>
+        <v>45970</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8270,7 +8300,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8307,14 +8337,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34422-2024</t>
+          <t>A 55306-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45525</v>
+        <v>45970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8327,7 +8357,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8364,14 +8394,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 11943-2025</t>
+          <t>A 40994-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45728</v>
+        <v>45898</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8384,7 +8414,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8421,14 +8451,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44613-2023</t>
+          <t>A 55942-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45189</v>
+        <v>45973.45210648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8440,13 +8470,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8483,14 +8508,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3482-2026</t>
+          <t>A 3534-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46042</v>
+        <v>45680</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8502,8 +8527,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8540,14 +8570,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43937-2023</t>
+          <t>A 20595-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45187</v>
+        <v>45436</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8559,8 +8589,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8597,14 +8632,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43939-2023</t>
+          <t>A 43937-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8617,7 +8652,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8654,14 +8689,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 67426-2021</t>
+          <t>A 43939-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44523</v>
+        <v>45187</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8711,14 +8746,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3534-2025</t>
+          <t>A 57269-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45680</v>
+        <v>45979.67579861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8732,11 +8767,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8773,14 +8808,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7831-2025</t>
+          <t>A 28501-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45706</v>
+        <v>45103</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8793,7 +8828,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8830,14 +8865,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4590-2026</t>
+          <t>A 28527-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46048.34422453704</v>
+        <v>45103</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8850,7 +8885,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8887,14 +8922,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62277-2025</t>
+          <t>A 54894-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46006.63184027778</v>
+        <v>45236.63965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8907,7 +8942,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8944,14 +8979,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4597-2026</t>
+          <t>A 666-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46048.34892361111</v>
+        <v>45300.32600694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8963,8 +8998,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9001,14 +9041,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5374-2026</t>
+          <t>A 37276-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46050.45886574074</v>
+        <v>45540.40679398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9021,7 +9061,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9058,14 +9098,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18735-2023</t>
+          <t>A 59308-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45043.68783564815</v>
+        <v>45989</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9078,7 +9118,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9115,14 +9155,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 63700-2025</t>
+          <t>A 59306-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46014.57976851852</v>
+        <v>45989.25456018518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9135,7 +9175,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9172,14 +9212,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6591-2025</t>
+          <t>A 59305-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45700.30478009259</v>
+        <v>45989.25054398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9232,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9229,14 +9269,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28493-2023</t>
+          <t>A 59307-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45103.44575231482</v>
+        <v>45989.25509259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9289,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9286,14 +9326,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6350-2026</t>
+          <t>A 59284-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46051</v>
+        <v>45988.72927083333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9346,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9343,14 +9383,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 55307-2025</t>
+          <t>A 59304-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45970</v>
+        <v>45989</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9363,7 +9403,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9400,14 +9440,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 23328-2023</t>
+          <t>A 57017-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45076</v>
+        <v>45978</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9419,13 +9459,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9462,14 +9497,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36840-2024</t>
+          <t>A 36689-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45538</v>
+        <v>45537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9487,7 +9522,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9524,14 +9559,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60913-2023</t>
+          <t>A 3192-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45261.39200231482</v>
+        <v>46041.46335648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9544,7 +9579,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9581,14 +9616,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5370-2026</t>
+          <t>A 31522-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46050</v>
+        <v>44775.0827662037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9636,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9638,14 +9673,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 63701-2025</t>
+          <t>A 54184-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46014.59008101852</v>
+        <v>45616.64002314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9693,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9695,14 +9730,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 49199-2025</t>
+          <t>A 60624-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45938</v>
+        <v>45996.40064814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9750,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9752,14 +9787,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8084-2022</t>
+          <t>A 3482-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44608</v>
+        <v>46042</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9807,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9809,14 +9844,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2686-2026</t>
+          <t>A 60913-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46037</v>
+        <v>45261.39200231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9828,13 +9863,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9871,14 +9901,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1989-2026</t>
+          <t>A 44073-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46035.66065972222</v>
+        <v>45572</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9891,7 +9921,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9928,14 +9958,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18369-2025</t>
+          <t>A 11941-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45762</v>
+        <v>45728</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9978,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9985,14 +10015,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2688-2026</t>
+          <t>A 43380-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46037.65879629629</v>
+        <v>44834.65802083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10004,13 +10034,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10047,14 +10072,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 28625-2023</t>
+          <t>A 20403-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45103.60590277778</v>
+        <v>45435</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10067,7 +10092,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10104,14 +10129,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6056-2023</t>
+          <t>A 1106-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44964</v>
+        <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10124,7 +10149,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10161,14 +10186,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4791-2026</t>
+          <t>A 4597-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46048.56442129629</v>
+        <v>46048.34892361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10180,13 +10205,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10223,14 +10243,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8259-2026</t>
+          <t>A 4590-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46064</v>
+        <v>46048.34422453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10243,7 +10263,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10280,14 +10300,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8260-2026</t>
+          <t>A 62277-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46064.52855324074</v>
+        <v>46006.63184027778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10300,7 +10320,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10337,14 +10357,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3013-2026</t>
+          <t>A 5374-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46038.66546296296</v>
+        <v>46050.45886574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10357,7 +10377,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10394,14 +10414,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3180-2026</t>
+          <t>A 5370-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46041.44900462963</v>
+        <v>46050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10414,7 +10434,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10451,14 +10471,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13804-2024</t>
+          <t>A 49199-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45391</v>
+        <v>45938</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10471,7 +10491,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10508,14 +10528,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 25833-2024</t>
+          <t>A 49726-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45463</v>
+        <v>45208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10548,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10565,14 +10585,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3513-2026</t>
+          <t>A 36840-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46042</v>
+        <v>45538</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10582,6 +10602,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -10622,14 +10647,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3520-2026</t>
+          <t>A 6350-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46042</v>
+        <v>46051</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10642,7 +10667,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10679,14 +10704,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4640-2026</t>
+          <t>A 55307-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46048</v>
+        <v>45970</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10699,7 +10724,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10736,14 +10761,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5079-2026</t>
+          <t>A 24724-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46049.53917824074</v>
+        <v>45460.64310185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10756,7 +10781,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10793,14 +10818,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8310-2026</t>
+          <t>A 58641-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46064.59166666667</v>
+        <v>45251</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10813,7 +10838,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10850,14 +10875,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3470-2026</t>
+          <t>A 63700-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46042</v>
+        <v>46014.57976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10870,7 +10895,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10907,14 +10932,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3177-2026</t>
+          <t>A 63701-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46041</v>
+        <v>46014.59008101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10927,7 +10952,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10964,14 +10989,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6886-2024</t>
+          <t>A 3040-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45342</v>
+        <v>45316</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,13 +11008,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11026,14 +11046,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1106-2023</t>
+          <t>A 15970-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44935</v>
+        <v>45405</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11046,7 +11066,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11083,14 +11103,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 7402-2026</t>
+          <t>A 18735-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46059</v>
+        <v>45043.68783564815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11103,7 +11123,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11140,14 +11160,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 826-2026</t>
+          <t>A 4791-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46030.36222222223</v>
+        <v>46048.56442129629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11165,7 +11185,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11202,14 +11222,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 829-2026</t>
+          <t>A 6081-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46030.36413194444</v>
+        <v>44959</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11221,13 +11241,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11264,14 +11279,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 821-2026</t>
+          <t>A 25833-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46030.35765046296</v>
+        <v>45463</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11283,13 +11298,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11326,14 +11336,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17073-2023</t>
+          <t>A 29219-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45034</v>
+        <v>45105.58829861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11346,7 +11356,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11383,14 +11393,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 809-2026</t>
+          <t>A 1989-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46030.32238425926</v>
+        <v>46035.66065972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11413,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11440,14 +11450,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 554-2026</t>
+          <t>A 56818-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46029.46380787037</v>
+        <v>44894</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11470,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11497,14 +11507,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2979-2024</t>
+          <t>A 44135-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45315</v>
+        <v>45572</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11516,13 +11526,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11559,14 +11564,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31596-2023</t>
+          <t>A 2686-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45117</v>
+        <v>46037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11578,8 +11583,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11616,14 +11626,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54184-2024</t>
+          <t>A 2688-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45616.64002314815</v>
+        <v>46037.65879629629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11635,8 +11645,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11673,14 +11688,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 43932-2023</t>
+          <t>A 3013-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45187</v>
+        <v>46038.66546296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11708,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11730,14 +11745,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 43935-2023</t>
+          <t>A 8259-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45187</v>
+        <v>46064</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11750,7 +11765,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11787,14 +11802,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31115-2024</t>
+          <t>A 3180-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45502</v>
+        <v>46041.44900462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,7 +11822,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11844,14 +11859,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20403-2024</t>
+          <t>A 8260-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45435</v>
+        <v>46064.52855324074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11864,7 +11879,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11901,14 +11916,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3040-2024</t>
+          <t>A 4640-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45316</v>
+        <v>46048</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11921,7 +11936,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11958,14 +11973,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 44816-2023</t>
+          <t>A 8310-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45190.51157407407</v>
+        <v>46064.59166666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11978,7 +11993,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12015,14 +12030,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 47552-2023</t>
+          <t>A 3513-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45203.38798611111</v>
+        <v>46042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12035,7 +12050,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12072,14 +12087,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54431-2023</t>
+          <t>A 3520-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45226</v>
+        <v>46042</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12092,7 +12107,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12129,14 +12144,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 19777-2023</t>
+          <t>A 34422-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45051</v>
+        <v>45525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12149,7 +12164,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12186,14 +12201,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 43879-2023</t>
+          <t>A 5079-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45187</v>
+        <v>46049.53917824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12205,13 +12220,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12248,14 +12258,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3471-2025</t>
+          <t>A 3470-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45680</v>
+        <v>46042</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12268,7 +12278,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12305,14 +12315,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49726-2023</t>
+          <t>A 49071-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45208</v>
+        <v>44860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12325,7 +12335,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12362,14 +12372,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 28501-2023</t>
+          <t>A 554-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45103</v>
+        <v>46029.46380787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12382,7 +12392,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12419,14 +12429,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 33873-2024</t>
+          <t>A 3177-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45521.66075231481</v>
+        <v>46041</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12439,7 +12449,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12476,14 +12486,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58360-2023</t>
+          <t>A 7831-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45250</v>
+        <v>45706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12496,7 +12506,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12533,14 +12543,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 39298-2023</t>
+          <t>A 56750-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45166.55553240741</v>
+        <v>45238</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12553,7 +12563,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12590,14 +12600,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 29219-2023</t>
+          <t>A 826-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45105.58829861111</v>
+        <v>46030.36222222223</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12609,8 +12619,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12647,14 +12662,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 3542-2025</t>
+          <t>A 829-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45680</v>
+        <v>46030.36413194444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12668,11 +12683,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12709,14 +12724,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 65073-2023</t>
+          <t>A 821-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45287</v>
+        <v>46030.35765046296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12728,8 +12743,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12766,14 +12786,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47637-2023</t>
+          <t>A 7402-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45203</v>
+        <v>46059</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12806,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12823,14 +12843,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 24670-2024</t>
+          <t>A 809-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45460.58565972222</v>
+        <v>46030.32238425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12863,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12880,14 +12900,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6533-2024</t>
+          <t>A 9850-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45341.38024305556</v>
+        <v>46072</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12899,13 +12919,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12942,14 +12957,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6081-2023</t>
+          <t>A 17073-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44959</v>
+        <v>45034</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12962,7 +12977,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12999,14 +13014,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 31114-2024</t>
+          <t>A 18369-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45502</v>
+        <v>45762</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13019,7 +13034,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13056,14 +13071,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11941-2025</t>
+          <t>A 19420-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45728</v>
+        <v>44693</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13076,7 +13091,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13113,14 +13128,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15631-2025</t>
+          <t>A 119-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45748</v>
+        <v>44928</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13170,14 +13185,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 38684-2022</t>
+          <t>A 50715-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44814</v>
+        <v>45602</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13190,7 +13205,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13227,14 +13242,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 37757-2024</t>
+          <t>A 37724-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45541</v>
+        <v>44810</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13247,7 +13262,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13284,14 +13299,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 25183-2023</t>
+          <t>A 37728-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45079</v>
+        <v>44810.56689814815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13304,7 +13319,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13341,14 +13356,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 44073-2024</t>
+          <t>A 47637-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45572</v>
+        <v>45203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13361,7 +13376,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13398,14 +13413,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 37276-2024</t>
+          <t>A 4555-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45540.40679398148</v>
+        <v>45687.43989583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13417,8 +13432,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13455,14 +13475,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 20595-2024</t>
+          <t>A 33873-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45436</v>
+        <v>45521.66075231481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,11 +13492,6 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>HÖRBY</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -13517,14 +13532,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 119-2023</t>
+          <t>A 3542-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44928</v>
+        <v>45680</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13536,8 +13551,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13574,14 +13594,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 43685-2022</t>
+          <t>A 13228-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44837</v>
+        <v>45386</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13594,7 +13614,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13631,14 +13651,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 38084-2024</t>
+          <t>A 15998-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45545.31864583334</v>
+        <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13651,7 +13671,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13688,14 +13708,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 24724-2024</t>
+          <t>A 16001-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45460.64310185185</v>
+        <v>45405</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13708,7 +13728,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13745,14 +13765,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6558-2025</t>
+          <t>A 31114-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45699</v>
+        <v>45502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13764,13 +13784,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13807,14 +13822,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 2747-2023</t>
+          <t>A 13804-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44944</v>
+        <v>45391</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13826,13 +13841,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13869,14 +13879,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 31522-2022</t>
+          <t>A 19777-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44775.0827662037</v>
+        <v>45051</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13889,7 +13899,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13926,14 +13936,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 55265-2023</t>
+          <t>A 28746-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45237</v>
+        <v>45478</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13946,7 +13956,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13983,14 +13993,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28918-2023</t>
+          <t>A 38084-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45104</v>
+        <v>45545.31864583334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14003,7 +14013,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14040,14 +14050,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3239-2023</t>
+          <t>A 6558-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44946.89586805556</v>
+        <v>45699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14059,8 +14069,13 @@
           <t>HÖRBY</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14097,14 +14112,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 13228-2024</t>
+          <t>A 25183-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45386</v>
+        <v>45079</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14117,7 +14132,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14154,14 +14169,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 48427-2022</t>
+          <t>A 41940-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44858</v>
+        <v>44833</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14173,13 +14188,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14216,14 +14226,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4756-2025</t>
+          <t>A 38684-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45688.4693287037</v>
+        <v>44814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14236,7 +14246,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14273,14 +14283,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33358-2023</t>
+          <t>A 57572-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45128</v>
+        <v>45630.46747685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14293,7 +14303,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14330,14 +14340,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 39507-2024</t>
+          <t>A 65073-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45551</v>
+        <v>45287</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14349,13 +14359,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14392,14 +14397,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 41940-2022</t>
+          <t>A 21713-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44833</v>
+        <v>45783.53788194444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14412,7 +14417,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14449,14 +14454,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43882-2023</t>
+          <t>A 52310-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45187.65003472222</v>
+        <v>45224.62993055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14468,13 +14473,8 @@
           <t>HÖRBY</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14511,14 +14511,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28527-2023</t>
+          <t>A 15768-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45103</v>
+        <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14568,14 +14568,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 57572-2024</t>
+          <t>A 2170-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45630.46747685185</v>
+        <v>45673.31113425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14625,14 +14625,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 19420-2022</t>
+          <t>A 5619-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44693</v>
+        <v>45334</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14682,14 +14682,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 42724-2023</t>
+          <t>A 32546-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45176</v>
+        <v>44374.9483912037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14739,14 +14739,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 47641-2023</t>
+          <t>A 16665-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45203</v>
+        <v>45754.42253472222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14793,17 +14793,17 @@
       </c>
       <c r="R239" s="2" t="inlineStr"/>
     </row>
-    <row r="240">
+    <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60963-2023</t>
+          <t>A 43711-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45261.46871527778</v>
+        <v>45569</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14849,6 +14849,63 @@
         <v>0</v>
       </c>
       <c r="R240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>A 23484-2025</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>HÖRBY</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖRBY.xlsx
+++ b/Översikt HÖRBY.xlsx
@@ -575,7 +575,7 @@
         <v>44727</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44819</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45434</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45104</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45799</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44774</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45238</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45840.46471064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44928</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44725</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>46030.36170138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45802</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44309.50596064814</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44509</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44663</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44266.62806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44273</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44697</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44426</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44379</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44510.67604166667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>44354</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44273</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44834.66863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>44771.70138888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44374.93796296296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44379</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44266</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44466</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44789</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44312.55366898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44733.60949074074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44312</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45460.58565972222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>45315</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45341.38024305556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45763</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45680</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45128</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45748</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>45541</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>45117</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45189</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45677</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45250</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45104</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45750.2624537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45688.4693287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>45502</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44872</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45176</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44858</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45342</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>45128</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45203</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>45551</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>45166.55553240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>45317</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45300.56560185185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>45363</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>45728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45176</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45818</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>45104</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>45715.65923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>45187</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>45187</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45824.36681712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>45824</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44944</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44858</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>44608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>45572.2912037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>45386</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>45386</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>45203.38798611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>45839</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>45838.41444444445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>45315</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>45541.74803240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>44944</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45845</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45838</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>45155</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45916.39457175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45226</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45103.60590277778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45545.31652777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45868.50842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45868.5252662037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45762</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45868.54038194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>45390.42027777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45190.51157407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45103.44575231482</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45803</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>45187</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45882.58765046296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>45203</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45938.64427083333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>45700.30478009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>45845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45943.65060185185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45187.65003472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45076</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44523</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44946.89586805556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45261.46871527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45951.62902777778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44837</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>45956.48366898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45957.6219212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>45957.62021990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45237</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44964</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45330</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>45958</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>45763.49189814815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45966.60334490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45203</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45970</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45898</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45973.45210648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45680</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45436</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45187</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>45187</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>45979.67579861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45103</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45103</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45236.63965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45300.32600694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>45540.40679398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>45989</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>45989.25456018518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>45989.25054398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45989.25509259259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45988.72927083333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>45989</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45978</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>45537</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>46041.46335648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>44775.0827662037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45616.64002314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>45996.40064814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>46042</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45261.39200231482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>45572</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>45728</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44834.65802083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>45435</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>46048.34892361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>46048.34422453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>46006.63184027778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>46050.45886574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>46050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>45938</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>45208</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>45538</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>46051</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45970</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45460.64310185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45251</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>46014.57976851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>46014.59008101852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45316</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45405</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45043.68783564815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>46048.56442129629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44959</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45463</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45105.58829861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>46035.66065972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44894</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>45572</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>46037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>46037.65879629629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>46038.66546296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>46064</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>46041.44900462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>46064.52855324074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11923,7 +11923,7 @@
         <v>46048</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>46064.59166666667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>46042</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>46042</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>45525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>46049.53917824074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>46042</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44860</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>46029.46380787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>46041</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45238</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>46030.36222222223</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>46030.36413194444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>46030.35765046296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>46059</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>46030.32238425926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>46072</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>45034</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45762</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44693</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44928</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45602</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44810</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44810.56689814815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>45203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>45687.43989583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45521.66075231481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>45680</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45386</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45405</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45502</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45391</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45051</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45478</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45545.31864583334</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45699</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45079</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44833</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44814</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45630.46747685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>45287</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45783.53788194444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45224.62993055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44286</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45673.31113425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45334</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44374.9483912037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>45754.42253472222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45569</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45792</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
